--- a/data/static_tables/metric_structure_newcolumns.xlsx
+++ b/data/static_tables/metric_structure_newcolumns.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\projects\eGrid\production_model\users\russelle\egrid\data\static_tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF01A056-45B3-4CE5-A9A9-8BE0FB888A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B064B5-0D02-41D8-872E-57A8FB6B7635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1050" yWindow="-120" windowWidth="27870" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1050" yWindow="-120" windowWidth="27870" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UNT21" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6194" uniqueCount="2924">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6212" uniqueCount="2932">
   <si>
     <t>Name</t>
   </si>
@@ -8798,9 +8798,6 @@
     <t>PLC2ERA</t>
   </si>
   <si>
-    <t>Stack or Flue ID</t>
-  </si>
-  <si>
     <t>Stack Flue Status</t>
   </si>
   <si>
@@ -8829,6 +8826,33 @@
   </si>
   <si>
     <t>CHPCO2E</t>
+  </si>
+  <si>
+    <t>STACKHT</t>
+  </si>
+  <si>
+    <t>PLGENATO</t>
+  </si>
+  <si>
+    <t>PLGENATO2</t>
+  </si>
+  <si>
+    <t>Plant annual other nonrenewables net generation (MWh)</t>
+  </si>
+  <si>
+    <t>Plant annual other nonrenewables net generation (GJ)</t>
+  </si>
+  <si>
+    <t>Plant annual other noncombustion net generation (MWh)</t>
+  </si>
+  <si>
+    <t>PLGENACO</t>
+  </si>
+  <si>
+    <t>Plant annual other noncombustion net generation (GJ)</t>
+  </si>
+  <si>
+    <t>PLGENACO2</t>
   </si>
 </sst>
 </file>
@@ -9748,11 +9772,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T36"/>
+  <dimension ref="A1:T35"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A41" sqref="A41"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -9990,7 +10014,7 @@
       </c>
       <c r="E18" s="139"/>
     </row>
-    <row r="19" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="39" t="s">
         <v>42</v>
       </c>
@@ -10181,26 +10205,19 @@
       <c r="E34" s="139"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="36" t="s">
+      <c r="A35" s="152" t="s">
         <v>2914</v>
       </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
+      <c r="B35" s="153" t="s">
+        <v>2923</v>
+      </c>
+      <c r="C35" s="154" t="s">
+        <v>2916</v>
+      </c>
+      <c r="D35" s="154" t="s">
+        <v>2915</v>
+      </c>
       <c r="E35" s="139"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="152" t="s">
-        <v>2915</v>
-      </c>
-      <c r="B36" s="153"/>
-      <c r="C36" s="154" t="s">
-        <v>2917</v>
-      </c>
-      <c r="D36" s="154" t="s">
-        <v>2916</v>
-      </c>
-      <c r="E36" s="139"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10489,11 +10506,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:IN179"/>
+  <dimension ref="A1:IN183"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E118" sqref="E118"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A157" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E171" sqref="E171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -12567,10 +12584,10 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="38" t="s">
+        <v>2917</v>
+      </c>
+      <c r="B100" s="70" t="s">
         <v>2918</v>
-      </c>
-      <c r="B100" s="70" t="s">
-        <v>2919</v>
       </c>
       <c r="C100" s="130" t="s">
         <v>40</v>
@@ -12846,10 +12863,10 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="72" t="s">
+        <v>2919</v>
+      </c>
+      <c r="B121" s="73" t="s">
         <v>2920</v>
-      </c>
-      <c r="B121" s="73" t="s">
-        <v>2921</v>
       </c>
       <c r="C121" s="131" t="s">
         <v>40</v>
@@ -12981,10 +12998,10 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="155" t="s">
+        <v>2921</v>
+      </c>
+      <c r="B130" s="73" t="s">
         <v>2922</v>
-      </c>
-      <c r="B130" s="73" t="s">
-        <v>2923</v>
       </c>
       <c r="C130" s="131" t="s">
         <v>40</v>
@@ -13395,10 +13412,10 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" s="77" t="s">
-        <v>397</v>
+        <v>2926</v>
       </c>
       <c r="B156" s="78" t="s">
-        <v>398</v>
+        <v>2924</v>
       </c>
       <c r="C156" s="78" t="s">
         <v>93</v>
@@ -13410,10 +13427,10 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" s="77" t="s">
-        <v>399</v>
+        <v>2927</v>
       </c>
       <c r="B157" s="78" t="s">
-        <v>400</v>
+        <v>2925</v>
       </c>
       <c r="C157" s="78" t="s">
         <v>34</v>
@@ -13426,63 +13443,63 @@
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A158" s="79" t="s">
+      <c r="A158" s="77" t="s">
+        <v>397</v>
+      </c>
+      <c r="B158" s="78" t="s">
+        <v>398</v>
+      </c>
+      <c r="C158" s="78" t="s">
+        <v>93</v>
+      </c>
+      <c r="D158" s="78" t="s">
+        <v>93</v>
+      </c>
+      <c r="E158" s="144"/>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A159" s="77" t="s">
+        <v>399</v>
+      </c>
+      <c r="B159" s="78" t="s">
+        <v>400</v>
+      </c>
+      <c r="C159" s="78" t="s">
+        <v>34</v>
+      </c>
+      <c r="D159" s="78" t="s">
+        <v>93</v>
+      </c>
+      <c r="E159" s="144" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A160" s="79" t="s">
         <v>401</v>
       </c>
-      <c r="B158" s="80" t="s">
+      <c r="B160" s="80" t="s">
         <v>402</v>
       </c>
-      <c r="C158" s="80" t="s">
-        <v>93</v>
-      </c>
-      <c r="D158" s="80" t="s">
-        <v>93</v>
-      </c>
-      <c r="E158" s="144"/>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A159" s="79" t="s">
+      <c r="C160" s="80" t="s">
+        <v>93</v>
+      </c>
+      <c r="D160" s="80" t="s">
+        <v>93</v>
+      </c>
+      <c r="E160" s="144"/>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A161" s="79" t="s">
         <v>403</v>
       </c>
-      <c r="B159" s="80" t="s">
+      <c r="B161" s="80" t="s">
         <v>404</v>
       </c>
-      <c r="C159" s="80" t="s">
+      <c r="C161" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="D159" s="80" t="s">
-        <v>93</v>
-      </c>
-      <c r="E159" s="144" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A160" s="81" t="s">
-        <v>405</v>
-      </c>
-      <c r="B160" s="82" t="s">
-        <v>406</v>
-      </c>
-      <c r="C160" s="148" t="s">
-        <v>93</v>
-      </c>
-      <c r="D160" s="148" t="s">
-        <v>93</v>
-      </c>
-      <c r="E160" s="144"/>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A161" s="81" t="s">
-        <v>407</v>
-      </c>
-      <c r="B161" s="82" t="s">
-        <v>408</v>
-      </c>
-      <c r="C161" s="148" t="s">
-        <v>34</v>
-      </c>
-      <c r="D161" s="148" t="s">
+      <c r="D161" s="80" t="s">
         <v>93</v>
       </c>
       <c r="E161" s="144" t="s">
@@ -13491,10 +13508,10 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" s="81" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B162" s="82" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C162" s="148" t="s">
         <v>93</v>
@@ -13506,10 +13523,10 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" s="81" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B163" s="82" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C163" s="148" t="s">
         <v>34</v>
@@ -13522,71 +13539,75 @@
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A164" s="83" t="s">
-        <v>413</v>
-      </c>
-      <c r="B164" s="84" t="s">
-        <v>414</v>
-      </c>
-      <c r="C164" s="132" t="s">
-        <v>415</v>
-      </c>
-      <c r="D164" s="132" t="s">
-        <v>415</v>
+      <c r="A164" s="81" t="s">
+        <v>409</v>
+      </c>
+      <c r="B164" s="82" t="s">
+        <v>410</v>
+      </c>
+      <c r="C164" s="148" t="s">
+        <v>93</v>
+      </c>
+      <c r="D164" s="148" t="s">
+        <v>93</v>
       </c>
       <c r="E164" s="144"/>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A165" s="83" t="s">
-        <v>416</v>
-      </c>
-      <c r="B165" s="84" t="s">
-        <v>417</v>
-      </c>
-      <c r="C165" s="132" t="s">
-        <v>415</v>
-      </c>
-      <c r="D165" s="132" t="s">
-        <v>415</v>
-      </c>
-      <c r="E165" s="144"/>
+      <c r="A165" s="81" t="s">
+        <v>411</v>
+      </c>
+      <c r="B165" s="82" t="s">
+        <v>412</v>
+      </c>
+      <c r="C165" s="148" t="s">
+        <v>34</v>
+      </c>
+      <c r="D165" s="148" t="s">
+        <v>93</v>
+      </c>
+      <c r="E165" s="144" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A166" s="83" t="s">
-        <v>418</v>
-      </c>
-      <c r="B166" s="84" t="s">
-        <v>419</v>
-      </c>
-      <c r="C166" s="132" t="s">
-        <v>415</v>
-      </c>
-      <c r="D166" s="132" t="s">
-        <v>415</v>
+      <c r="A166" s="81" t="s">
+        <v>2928</v>
+      </c>
+      <c r="B166" s="82" t="s">
+        <v>2929</v>
+      </c>
+      <c r="C166" s="148" t="s">
+        <v>93</v>
+      </c>
+      <c r="D166" s="148" t="s">
+        <v>93</v>
       </c>
       <c r="E166" s="144"/>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A167" s="83" t="s">
-        <v>420</v>
-      </c>
-      <c r="B167" s="84" t="s">
-        <v>421</v>
-      </c>
-      <c r="C167" s="132" t="s">
-        <v>415</v>
-      </c>
-      <c r="D167" s="132" t="s">
-        <v>415</v>
-      </c>
-      <c r="E167" s="144"/>
+      <c r="A167" s="81" t="s">
+        <v>2930</v>
+      </c>
+      <c r="B167" s="82" t="s">
+        <v>2931</v>
+      </c>
+      <c r="C167" s="148" t="s">
+        <v>34</v>
+      </c>
+      <c r="D167" s="148" t="s">
+        <v>93</v>
+      </c>
+      <c r="E167" s="144" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" s="83" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="B168" s="84" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="C168" s="132" t="s">
         <v>415</v>
@@ -13598,10 +13619,10 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" s="83" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="B169" s="84" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="C169" s="132" t="s">
         <v>415</v>
@@ -13613,10 +13634,10 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="83" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B170" s="84" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="C170" s="132" t="s">
         <v>415</v>
@@ -13628,10 +13649,10 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" s="83" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="B171" s="84" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="C171" s="132" t="s">
         <v>415</v>
@@ -13643,10 +13664,10 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" s="83" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="B172" s="84" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="C172" s="132" t="s">
         <v>415</v>
@@ -13658,10 +13679,10 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" s="83" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="B173" s="84" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="C173" s="132" t="s">
         <v>415</v>
@@ -13673,10 +13694,10 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" s="83" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="B174" s="84" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="C174" s="132" t="s">
         <v>415</v>
@@ -13687,79 +13708,139 @@
       <c r="E174" s="144"/>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A175" s="85" t="s">
+      <c r="A175" s="83" t="s">
+        <v>428</v>
+      </c>
+      <c r="B175" s="84" t="s">
+        <v>429</v>
+      </c>
+      <c r="C175" s="132" t="s">
+        <v>415</v>
+      </c>
+      <c r="D175" s="132" t="s">
+        <v>415</v>
+      </c>
+      <c r="E175" s="144"/>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A176" s="83" t="s">
+        <v>430</v>
+      </c>
+      <c r="B176" s="84" t="s">
+        <v>431</v>
+      </c>
+      <c r="C176" s="132" t="s">
+        <v>415</v>
+      </c>
+      <c r="D176" s="132" t="s">
+        <v>415</v>
+      </c>
+      <c r="E176" s="144"/>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A177" s="83" t="s">
+        <v>432</v>
+      </c>
+      <c r="B177" s="84" t="s">
+        <v>433</v>
+      </c>
+      <c r="C177" s="132" t="s">
+        <v>415</v>
+      </c>
+      <c r="D177" s="132" t="s">
+        <v>415</v>
+      </c>
+      <c r="E177" s="144"/>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A178" s="83" t="s">
+        <v>434</v>
+      </c>
+      <c r="B178" s="84" t="s">
+        <v>435</v>
+      </c>
+      <c r="C178" s="132" t="s">
+        <v>415</v>
+      </c>
+      <c r="D178" s="132" t="s">
+        <v>415</v>
+      </c>
+      <c r="E178" s="144"/>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A179" s="85" t="s">
         <v>436</v>
       </c>
-      <c r="B175" s="86" t="s">
+      <c r="B179" s="86" t="s">
         <v>437</v>
       </c>
-      <c r="C175" s="133" t="s">
+      <c r="C179" s="133" t="s">
         <v>415</v>
       </c>
-      <c r="D175" s="133" t="s">
+      <c r="D179" s="133" t="s">
         <v>415</v>
       </c>
-      <c r="E175" s="144"/>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A176" s="85" t="s">
+      <c r="E179" s="144"/>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A180" s="85" t="s">
         <v>438</v>
       </c>
-      <c r="B176" s="86" t="s">
+      <c r="B180" s="86" t="s">
         <v>439</v>
       </c>
-      <c r="C176" s="133" t="s">
+      <c r="C180" s="133" t="s">
         <v>415</v>
       </c>
-      <c r="D176" s="133" t="s">
+      <c r="D180" s="133" t="s">
         <v>415</v>
       </c>
-      <c r="E176" s="144"/>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A177" s="87" t="s">
+      <c r="E180" s="144"/>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A181" s="87" t="s">
         <v>440</v>
       </c>
-      <c r="B177" s="88" t="s">
+      <c r="B181" s="88" t="s">
         <v>441</v>
       </c>
-      <c r="C177" s="134" t="s">
+      <c r="C181" s="134" t="s">
         <v>415</v>
       </c>
-      <c r="D177" s="134" t="s">
+      <c r="D181" s="134" t="s">
         <v>415</v>
       </c>
-      <c r="E177" s="144"/>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A178" s="89" t="s">
+      <c r="E181" s="144"/>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A182" s="89" t="s">
         <v>442</v>
       </c>
-      <c r="B178" s="90" t="s">
+      <c r="B182" s="90" t="s">
         <v>443</v>
       </c>
-      <c r="C178" s="135" t="s">
+      <c r="C182" s="135" t="s">
         <v>415</v>
       </c>
-      <c r="D178" s="135" t="s">
+      <c r="D182" s="135" t="s">
         <v>415</v>
       </c>
-      <c r="E178" s="144"/>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A179" s="89" t="s">
+      <c r="E182" s="144"/>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A183" s="89" t="s">
         <v>444</v>
       </c>
-      <c r="B179" s="90" t="s">
+      <c r="B183" s="90" t="s">
         <v>445</v>
       </c>
-      <c r="C179" s="135" t="s">
+      <c r="C183" s="135" t="s">
         <v>415</v>
       </c>
-      <c r="D179" s="135" t="s">
+      <c r="D183" s="135" t="s">
         <v>415</v>
       </c>
-      <c r="E179" s="144"/>
+      <c r="E183" s="144"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13771,9 +13852,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:IN248"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A44" activeCellId="2" sqref="A42:XFD42 A43:XFD43 A44:XFD44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A213" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -33476,6 +33557,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="6c854b04-c9c6-4391-adbe-2e73191270e7" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="059b9c67-646b-4b4e-9ab1-2b1c805d0390">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AD6200282E8E804DB7E47654D11346C2" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="334b3f607926cb22599f187b4c015ce1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="059b9c67-646b-4b4e-9ab1-2b1c805d0390" xmlns:ns3="c05e7bd6-26a7-41a1-805c-893279a3732f" xmlns:ns4="6c854b04-c9c6-4391-adbe-2e73191270e7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0fe548b9ff7492f3109b4e0b4a8efc8f" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="059b9c67-646b-4b4e-9ab1-2b1c805d0390"/>
@@ -33735,27 +33836,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="6c854b04-c9c6-4391-adbe-2e73191270e7" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="059b9c67-646b-4b4e-9ab1-2b1c805d0390">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCA6965B-A23A-4F60-9CAE-00FD555BD4D8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A2EA77E-CA9B-4563-9A5E-2F50B3C8BA13}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6c854b04-c9c6-4391-adbe-2e73191270e7"/>
+    <ds:schemaRef ds:uri="059b9c67-646b-4b4e-9ab1-2b1c805d0390"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2FE51207-01AF-400E-9D05-58F426138751}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -33773,23 +33873,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A2EA77E-CA9B-4563-9A5E-2F50B3C8BA13}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="6c854b04-c9c6-4391-adbe-2e73191270e7"/>
-    <ds:schemaRef ds:uri="059b9c67-646b-4b4e-9ab1-2b1c805d0390"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCA6965B-A23A-4F60-9CAE-00FD555BD4D8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/static_tables/metric_structure_newcolumns.xlsx
+++ b/data/static_tables/metric_structure_newcolumns.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\projects\eGrid\production_model\users\russelle\egrid\data\static_tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B064B5-0D02-41D8-872E-57A8FB6B7635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9C8439-C617-4B7D-BB5B-B03179125382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1050" yWindow="-120" windowWidth="27870" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6555" yWindow="780" windowWidth="20580" windowHeight="13365" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UNT21" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6212" uniqueCount="2932">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6350" uniqueCount="2996">
   <si>
     <t>Name</t>
   </si>
@@ -8837,22 +8837,214 @@
     <t>PLGENATO2</t>
   </si>
   <si>
-    <t>Plant annual other nonrenewables net generation (MWh)</t>
-  </si>
-  <si>
-    <t>Plant annual other nonrenewables net generation (GJ)</t>
-  </si>
-  <si>
-    <t>Plant annual other noncombustion net generation (MWh)</t>
-  </si>
-  <si>
     <t>PLGENACO</t>
   </si>
   <si>
-    <t>Plant annual other noncombustion net generation (GJ)</t>
-  </si>
-  <si>
     <t>PLGENACO2</t>
+  </si>
+  <si>
+    <t>PLCOPR</t>
+  </si>
+  <si>
+    <t>STGENATO</t>
+  </si>
+  <si>
+    <t>STGENATO2</t>
+  </si>
+  <si>
+    <t>STGENACO</t>
+  </si>
+  <si>
+    <t>STGENACO2</t>
+  </si>
+  <si>
+    <t>PLTOPR</t>
+  </si>
+  <si>
+    <t>STTOPR</t>
+  </si>
+  <si>
+    <t>STCOPR</t>
+  </si>
+  <si>
+    <t>BAGENATO</t>
+  </si>
+  <si>
+    <t>BAGENATO2</t>
+  </si>
+  <si>
+    <t>BATOPR</t>
+  </si>
+  <si>
+    <t>BACOPR</t>
+  </si>
+  <si>
+    <t>BAGENACO</t>
+  </si>
+  <si>
+    <t>BAGENACO2</t>
+  </si>
+  <si>
+    <t>SRGENATO</t>
+  </si>
+  <si>
+    <t>SRGENATO2</t>
+  </si>
+  <si>
+    <t>SRGENACO</t>
+  </si>
+  <si>
+    <t>SRGENACO2</t>
+  </si>
+  <si>
+    <t>SRTOPR</t>
+  </si>
+  <si>
+    <t>SRCOPR</t>
+  </si>
+  <si>
+    <t>NRGENATO</t>
+  </si>
+  <si>
+    <t>NRGENATO2</t>
+  </si>
+  <si>
+    <t>NRGENACO</t>
+  </si>
+  <si>
+    <t>NRGENACO2</t>
+  </si>
+  <si>
+    <t>NRTOPR</t>
+  </si>
+  <si>
+    <t>NRCOPR</t>
+  </si>
+  <si>
+    <t>USGENATO</t>
+  </si>
+  <si>
+    <t>USGENATO2</t>
+  </si>
+  <si>
+    <t>USGENACO</t>
+  </si>
+  <si>
+    <t>USGENACO2</t>
+  </si>
+  <si>
+    <t>USTOPR</t>
+  </si>
+  <si>
+    <t>USCOPR</t>
+  </si>
+  <si>
+    <t>U.S. total other nonrenewables generation percent (resource mix)</t>
+  </si>
+  <si>
+    <t>U.S. total other noncombustion generation percent (resource mix)</t>
+  </si>
+  <si>
+    <t>U.S. annual total other noncombustion net generation (MWh)</t>
+  </si>
+  <si>
+    <t>U.S. annual total other noncombustion net generation (GJ)</t>
+  </si>
+  <si>
+    <t>U.S. annual total other nonrenewables net generation (MWh)</t>
+  </si>
+  <si>
+    <t>U.S. annual total other nonrenewables net generation (GJ)</t>
+  </si>
+  <si>
+    <t>Plant annual total other nonrenewables net generation (MWh)</t>
+  </si>
+  <si>
+    <t>Plant annual total other nonrenewables net generation (GJ)</t>
+  </si>
+  <si>
+    <t>Plant annual total other noncombustion net generation (MWh)</t>
+  </si>
+  <si>
+    <t>Plant annual total other noncombustion net generation (GJ)</t>
+  </si>
+  <si>
+    <t>Plant total other noncombustion generation percent (resource mix)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plant total other nonrenewables generation percent (resource mix) </t>
+  </si>
+  <si>
+    <t>State annual total other nonrenewables net generation (MWh)</t>
+  </si>
+  <si>
+    <t>State annual total other nonrenewables net generation (GJ)</t>
+  </si>
+  <si>
+    <t>State annual total other noncombustion net generation (MWh)</t>
+  </si>
+  <si>
+    <t>State annual total other noncombustion net generation (GJ)</t>
+  </si>
+  <si>
+    <t>State total other noncombustion generation percent (resource mix)</t>
+  </si>
+  <si>
+    <t>State total other nonrenewables generation percent (resource mix)</t>
+  </si>
+  <si>
+    <t>BA annual total other nonrenewables net generation (MWh)</t>
+  </si>
+  <si>
+    <t>BA annual total other nonrenewables net generation (GJ)</t>
+  </si>
+  <si>
+    <t>BA annual total other noncombustion net generation (MWh)</t>
+  </si>
+  <si>
+    <t>BA annual total other noncombustion net generation (GJ)</t>
+  </si>
+  <si>
+    <t>BA total other nonrenewables generation percent (resource mix)</t>
+  </si>
+  <si>
+    <t>BA total other noncombustion generation percent (resource mix)</t>
+  </si>
+  <si>
+    <t>eGRID subregion annual total other nonrenewables net generation (MWh)</t>
+  </si>
+  <si>
+    <t>eGRID subregion annual total other nonrenewables net generation (GJ)</t>
+  </si>
+  <si>
+    <t>eGRID subregion annual total other noncombustion net generation (MWh)</t>
+  </si>
+  <si>
+    <t>eGRID subregion annual total other noncombustion net generation (GJ)</t>
+  </si>
+  <si>
+    <t>eGRID subregion total other nonrenewables generation percent (resource mix)</t>
+  </si>
+  <si>
+    <t>eGRID subregion total other noncombustion generation percent (resource mix)</t>
+  </si>
+  <si>
+    <t>NERC region total other noncombustion generation percent (resource mix)</t>
+  </si>
+  <si>
+    <t>NERC region total other nonrenewables generation percent (resource mix)</t>
+  </si>
+  <si>
+    <t>NERC region annual total other noncombustion net generation (MWh)</t>
+  </si>
+  <si>
+    <t>NERC region annual total other noncombustion net generation (GJ)</t>
+  </si>
+  <si>
+    <t>NERC region annual total other nonrenewables net generation (MWh)</t>
+  </si>
+  <si>
+    <t>NERC region annual total other nonrenewables net generation (GJ)</t>
   </si>
 </sst>
 </file>
@@ -9079,7 +9271,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -9466,6 +9658,18 @@
     <xf numFmtId="3" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="169" fontId="1" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink 2" xfId="2" xr:uid="{9F9254EC-5057-4E77-BD50-329829D88EBE}"/>
@@ -9775,7 +9979,7 @@
   <dimension ref="A1:T35"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
@@ -10506,11 +10710,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:IN183"/>
+  <dimension ref="A1:IN185"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A157" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E171" sqref="E171"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A181" sqref="A181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -13412,7 +13616,7 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" s="77" t="s">
-        <v>2926</v>
+        <v>2966</v>
       </c>
       <c r="B156" s="78" t="s">
         <v>2924</v>
@@ -13427,7 +13631,7 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" s="77" t="s">
-        <v>2927</v>
+        <v>2967</v>
       </c>
       <c r="B157" s="78" t="s">
         <v>2925</v>
@@ -13572,10 +13776,10 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" s="81" t="s">
-        <v>2928</v>
+        <v>2968</v>
       </c>
       <c r="B166" s="82" t="s">
-        <v>2929</v>
+        <v>2926</v>
       </c>
       <c r="C166" s="148" t="s">
         <v>93</v>
@@ -13587,10 +13791,10 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" s="81" t="s">
-        <v>2930</v>
+        <v>2969</v>
       </c>
       <c r="B167" s="82" t="s">
-        <v>2931</v>
+        <v>2927</v>
       </c>
       <c r="C167" s="148" t="s">
         <v>34</v>
@@ -13784,10 +13988,10 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" s="85" t="s">
-        <v>438</v>
+        <v>2971</v>
       </c>
       <c r="B180" s="86" t="s">
-        <v>439</v>
+        <v>2933</v>
       </c>
       <c r="C180" s="133" t="s">
         <v>415</v>
@@ -13798,41 +14002,41 @@
       <c r="E180" s="144"/>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A181" s="87" t="s">
+      <c r="A181" s="85" t="s">
+        <v>438</v>
+      </c>
+      <c r="B181" s="86" t="s">
+        <v>439</v>
+      </c>
+      <c r="C181" s="133" t="s">
+        <v>415</v>
+      </c>
+      <c r="D181" s="133" t="s">
+        <v>415</v>
+      </c>
+      <c r="E181" s="144"/>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A182" s="87" t="s">
         <v>440</v>
       </c>
-      <c r="B181" s="88" t="s">
+      <c r="B182" s="88" t="s">
         <v>441</v>
       </c>
-      <c r="C181" s="134" t="s">
+      <c r="C182" s="134" t="s">
         <v>415</v>
       </c>
-      <c r="D181" s="134" t="s">
-        <v>415</v>
-      </c>
-      <c r="E181" s="144"/>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A182" s="89" t="s">
-        <v>442</v>
-      </c>
-      <c r="B182" s="90" t="s">
-        <v>443</v>
-      </c>
-      <c r="C182" s="135" t="s">
-        <v>415</v>
-      </c>
-      <c r="D182" s="135" t="s">
+      <c r="D182" s="134" t="s">
         <v>415</v>
       </c>
       <c r="E182" s="144"/>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" s="89" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B183" s="90" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C183" s="135" t="s">
         <v>415</v>
@@ -13841,6 +14045,36 @@
         <v>415</v>
       </c>
       <c r="E183" s="144"/>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A184" s="89" t="s">
+        <v>444</v>
+      </c>
+      <c r="B184" s="90" t="s">
+        <v>445</v>
+      </c>
+      <c r="C184" s="135" t="s">
+        <v>415</v>
+      </c>
+      <c r="D184" s="135" t="s">
+        <v>415</v>
+      </c>
+      <c r="E184" s="144"/>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A185" s="156" t="s">
+        <v>2970</v>
+      </c>
+      <c r="B185" s="157" t="s">
+        <v>2928</v>
+      </c>
+      <c r="C185" s="158" t="s">
+        <v>415</v>
+      </c>
+      <c r="D185" s="158" t="s">
+        <v>415</v>
+      </c>
+      <c r="E185" s="159"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13850,11 +14084,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:IN248"/>
+  <dimension ref="A1:IN254"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A213" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D74" sqref="D74"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A252" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A217" sqref="A217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -16871,10 +17105,10 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="77" t="s">
-        <v>822</v>
+        <v>2972</v>
       </c>
       <c r="B192" s="20" t="s">
-        <v>823</v>
+        <v>2929</v>
       </c>
       <c r="C192" s="78" t="s">
         <v>93</v>
@@ -16886,10 +17120,10 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" s="77" t="s">
-        <v>824</v>
+        <v>2973</v>
       </c>
       <c r="B193" s="20" t="s">
-        <v>825</v>
+        <v>2930</v>
       </c>
       <c r="C193" s="78" t="s">
         <v>34</v>
@@ -16902,63 +17136,63 @@
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A194" s="79" t="s">
+      <c r="A194" s="77" t="s">
+        <v>822</v>
+      </c>
+      <c r="B194" s="20" t="s">
+        <v>823</v>
+      </c>
+      <c r="C194" s="78" t="s">
+        <v>93</v>
+      </c>
+      <c r="D194" s="78" t="s">
+        <v>93</v>
+      </c>
+      <c r="E194" s="144"/>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A195" s="77" t="s">
+        <v>824</v>
+      </c>
+      <c r="B195" s="20" t="s">
+        <v>825</v>
+      </c>
+      <c r="C195" s="78" t="s">
+        <v>34</v>
+      </c>
+      <c r="D195" s="78" t="s">
+        <v>93</v>
+      </c>
+      <c r="E195" s="144" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A196" s="79" t="s">
         <v>826</v>
       </c>
-      <c r="B194" s="21" t="s">
+      <c r="B196" s="21" t="s">
         <v>827</v>
       </c>
-      <c r="C194" s="80" t="s">
-        <v>93</v>
-      </c>
-      <c r="D194" s="80" t="s">
-        <v>93</v>
-      </c>
-      <c r="E194" s="144"/>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A195" s="79" t="s">
+      <c r="C196" s="80" t="s">
+        <v>93</v>
+      </c>
+      <c r="D196" s="80" t="s">
+        <v>93</v>
+      </c>
+      <c r="E196" s="144"/>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A197" s="79" t="s">
         <v>828</v>
       </c>
-      <c r="B195" s="21" t="s">
+      <c r="B197" s="21" t="s">
         <v>829</v>
       </c>
-      <c r="C195" s="80" t="s">
+      <c r="C197" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="D195" s="80" t="s">
-        <v>93</v>
-      </c>
-      <c r="E195" s="144" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A196" s="81" t="s">
-        <v>830</v>
-      </c>
-      <c r="B196" s="22" t="s">
-        <v>831</v>
-      </c>
-      <c r="C196" s="148" t="s">
-        <v>93</v>
-      </c>
-      <c r="D196" s="148" t="s">
-        <v>93</v>
-      </c>
-      <c r="E196" s="144"/>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A197" s="81" t="s">
-        <v>832</v>
-      </c>
-      <c r="B197" s="22" t="s">
-        <v>833</v>
-      </c>
-      <c r="C197" s="148" t="s">
-        <v>34</v>
-      </c>
-      <c r="D197" s="148" t="s">
+      <c r="D197" s="80" t="s">
         <v>93</v>
       </c>
       <c r="E197" s="144" t="s">
@@ -16967,10 +17201,10 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" s="81" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="B198" s="22" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="C198" s="148" t="s">
         <v>93</v>
@@ -16982,10 +17216,10 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" s="81" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="B199" s="22" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="C199" s="148" t="s">
         <v>34</v>
@@ -16998,71 +17232,75 @@
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A200" s="83" t="s">
-        <v>838</v>
-      </c>
-      <c r="B200" s="23" t="s">
-        <v>839</v>
-      </c>
-      <c r="C200" s="132" t="s">
-        <v>415</v>
-      </c>
-      <c r="D200" s="132" t="s">
-        <v>415</v>
+      <c r="A200" s="81" t="s">
+        <v>834</v>
+      </c>
+      <c r="B200" s="22" t="s">
+        <v>835</v>
+      </c>
+      <c r="C200" s="148" t="s">
+        <v>93</v>
+      </c>
+      <c r="D200" s="148" t="s">
+        <v>93</v>
       </c>
       <c r="E200" s="144"/>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A201" s="83" t="s">
-        <v>840</v>
-      </c>
-      <c r="B201" s="23" t="s">
-        <v>841</v>
-      </c>
-      <c r="C201" s="132" t="s">
-        <v>415</v>
-      </c>
-      <c r="D201" s="132" t="s">
-        <v>415</v>
-      </c>
-      <c r="E201" s="144"/>
+      <c r="A201" s="81" t="s">
+        <v>836</v>
+      </c>
+      <c r="B201" s="22" t="s">
+        <v>837</v>
+      </c>
+      <c r="C201" s="148" t="s">
+        <v>34</v>
+      </c>
+      <c r="D201" s="148" t="s">
+        <v>93</v>
+      </c>
+      <c r="E201" s="144" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A202" s="83" t="s">
-        <v>842</v>
-      </c>
-      <c r="B202" s="23" t="s">
-        <v>843</v>
-      </c>
-      <c r="C202" s="132" t="s">
-        <v>415</v>
-      </c>
-      <c r="D202" s="132" t="s">
-        <v>415</v>
+      <c r="A202" s="81" t="s">
+        <v>2974</v>
+      </c>
+      <c r="B202" s="22" t="s">
+        <v>2931</v>
+      </c>
+      <c r="C202" s="148" t="s">
+        <v>93</v>
+      </c>
+      <c r="D202" s="148" t="s">
+        <v>93</v>
       </c>
       <c r="E202" s="144"/>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A203" s="83" t="s">
-        <v>844</v>
-      </c>
-      <c r="B203" s="23" t="s">
-        <v>845</v>
-      </c>
-      <c r="C203" s="132" t="s">
-        <v>415</v>
-      </c>
-      <c r="D203" s="132" t="s">
-        <v>415</v>
-      </c>
-      <c r="E203" s="144"/>
+      <c r="A203" s="81" t="s">
+        <v>2975</v>
+      </c>
+      <c r="B203" s="22" t="s">
+        <v>2932</v>
+      </c>
+      <c r="C203" s="148" t="s">
+        <v>34</v>
+      </c>
+      <c r="D203" s="148" t="s">
+        <v>93</v>
+      </c>
+      <c r="E203" s="144" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" s="83" t="s">
-        <v>846</v>
+        <v>838</v>
       </c>
       <c r="B204" s="23" t="s">
-        <v>847</v>
+        <v>839</v>
       </c>
       <c r="C204" s="132" t="s">
         <v>415</v>
@@ -17074,10 +17312,10 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" s="83" t="s">
-        <v>848</v>
+        <v>840</v>
       </c>
       <c r="B205" s="23" t="s">
-        <v>849</v>
+        <v>841</v>
       </c>
       <c r="C205" s="132" t="s">
         <v>415</v>
@@ -17089,10 +17327,10 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" s="83" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
       <c r="B206" s="23" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="C206" s="132" t="s">
         <v>415</v>
@@ -17104,10 +17342,10 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" s="83" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="B207" s="23" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
       <c r="C207" s="132" t="s">
         <v>415</v>
@@ -17119,10 +17357,10 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" s="83" t="s">
-        <v>854</v>
+        <v>846</v>
       </c>
       <c r="B208" s="23" t="s">
-        <v>855</v>
+        <v>847</v>
       </c>
       <c r="C208" s="132" t="s">
         <v>415</v>
@@ -17134,10 +17372,10 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" s="83" t="s">
-        <v>856</v>
+        <v>848</v>
       </c>
       <c r="B209" s="23" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="C209" s="132" t="s">
         <v>415</v>
@@ -17149,10 +17387,10 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" s="83" t="s">
-        <v>858</v>
+        <v>850</v>
       </c>
       <c r="B210" s="23" t="s">
-        <v>859</v>
+        <v>851</v>
       </c>
       <c r="C210" s="132" t="s">
         <v>415</v>
@@ -17163,182 +17401,176 @@
       <c r="E210" s="144"/>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A211" s="85" t="s">
+      <c r="A211" s="83" t="s">
+        <v>852</v>
+      </c>
+      <c r="B211" s="23" t="s">
+        <v>853</v>
+      </c>
+      <c r="C211" s="132" t="s">
+        <v>415</v>
+      </c>
+      <c r="D211" s="132" t="s">
+        <v>415</v>
+      </c>
+      <c r="E211" s="144"/>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A212" s="83" t="s">
+        <v>854</v>
+      </c>
+      <c r="B212" s="23" t="s">
+        <v>855</v>
+      </c>
+      <c r="C212" s="132" t="s">
+        <v>415</v>
+      </c>
+      <c r="D212" s="132" t="s">
+        <v>415</v>
+      </c>
+      <c r="E212" s="144"/>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A213" s="83" t="s">
+        <v>856</v>
+      </c>
+      <c r="B213" s="23" t="s">
+        <v>857</v>
+      </c>
+      <c r="C213" s="132" t="s">
+        <v>415</v>
+      </c>
+      <c r="D213" s="132" t="s">
+        <v>415</v>
+      </c>
+      <c r="E213" s="144"/>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A214" s="83" t="s">
+        <v>858</v>
+      </c>
+      <c r="B214" s="23" t="s">
+        <v>859</v>
+      </c>
+      <c r="C214" s="132" t="s">
+        <v>415</v>
+      </c>
+      <c r="D214" s="132" t="s">
+        <v>415</v>
+      </c>
+      <c r="E214" s="144"/>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A215" s="85" t="s">
         <v>860</v>
       </c>
-      <c r="B211" s="24" t="s">
+      <c r="B215" s="24" t="s">
         <v>861</v>
       </c>
-      <c r="C211" s="133" t="s">
+      <c r="C215" s="133" t="s">
         <v>415</v>
       </c>
-      <c r="D211" s="133" t="s">
+      <c r="D215" s="133" t="s">
         <v>415</v>
       </c>
-      <c r="E211" s="144"/>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A212" s="85" t="s">
+      <c r="E215" s="144"/>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A216" s="85" t="s">
+        <v>2977</v>
+      </c>
+      <c r="B216" s="24" t="s">
+        <v>2934</v>
+      </c>
+      <c r="C216" s="133" t="s">
+        <v>415</v>
+      </c>
+      <c r="D216" s="133" t="s">
+        <v>415</v>
+      </c>
+      <c r="E216" s="144"/>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A217" s="85" t="s">
         <v>862</v>
       </c>
-      <c r="B212" s="24" t="s">
+      <c r="B217" s="24" t="s">
         <v>863</v>
       </c>
-      <c r="C212" s="133" t="s">
+      <c r="C217" s="133" t="s">
         <v>415</v>
       </c>
-      <c r="D212" s="133" t="s">
+      <c r="D217" s="133" t="s">
         <v>415</v>
       </c>
-      <c r="E212" s="144"/>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A213" s="87" t="s">
+      <c r="E217" s="144"/>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A218" s="87" t="s">
         <v>864</v>
       </c>
-      <c r="B213" s="25" t="s">
+      <c r="B218" s="25" t="s">
         <v>865</v>
       </c>
-      <c r="C213" s="134" t="s">
+      <c r="C218" s="134" t="s">
         <v>415</v>
       </c>
-      <c r="D213" s="134" t="s">
+      <c r="D218" s="134" t="s">
         <v>415</v>
       </c>
-      <c r="E213" s="144"/>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A214" s="89" t="s">
+      <c r="E218" s="144"/>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A219" s="89" t="s">
         <v>866</v>
       </c>
-      <c r="B214" s="26" t="s">
+      <c r="B219" s="26" t="s">
         <v>867</v>
       </c>
-      <c r="C214" s="135" t="s">
+      <c r="C219" s="135" t="s">
         <v>415</v>
       </c>
-      <c r="D214" s="135" t="s">
+      <c r="D219" s="135" t="s">
         <v>415</v>
       </c>
-      <c r="E214" s="144"/>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A215" s="89" t="s">
+      <c r="E219" s="144"/>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A220" s="89" t="s">
         <v>868</v>
       </c>
-      <c r="B215" s="26" t="s">
+      <c r="B220" s="26" t="s">
         <v>869</v>
       </c>
-      <c r="C215" s="135" t="s">
+      <c r="C220" s="135" t="s">
         <v>415</v>
       </c>
-      <c r="D215" s="135" t="s">
+      <c r="D220" s="135" t="s">
         <v>415</v>
       </c>
-      <c r="E215" s="144"/>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A216" s="96" t="s">
-        <v>870</v>
-      </c>
-      <c r="B216" s="33" t="s">
-        <v>871</v>
-      </c>
-      <c r="C216" s="107" t="s">
-        <v>93</v>
-      </c>
-      <c r="D216" s="107" t="s">
-        <v>93</v>
-      </c>
-      <c r="E216" s="144"/>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A217" s="96" t="s">
-        <v>872</v>
-      </c>
-      <c r="B217" s="33" t="s">
-        <v>873</v>
-      </c>
-      <c r="C217" s="107" t="s">
-        <v>34</v>
-      </c>
-      <c r="D217" s="107" t="s">
-        <v>93</v>
-      </c>
-      <c r="E217" s="144" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A218" s="96" t="s">
-        <v>874</v>
-      </c>
-      <c r="B218" s="33" t="s">
-        <v>875</v>
-      </c>
-      <c r="C218" s="107" t="s">
-        <v>93</v>
-      </c>
-      <c r="D218" s="107" t="s">
-        <v>93</v>
-      </c>
-      <c r="E218" s="144"/>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A219" s="96" t="s">
-        <v>876</v>
-      </c>
-      <c r="B219" s="33" t="s">
-        <v>877</v>
-      </c>
-      <c r="C219" s="107" t="s">
-        <v>34</v>
-      </c>
-      <c r="D219" s="107" t="s">
-        <v>93</v>
-      </c>
-      <c r="E219" s="144" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A220" s="96" t="s">
-        <v>878</v>
-      </c>
-      <c r="B220" s="33" t="s">
-        <v>879</v>
-      </c>
-      <c r="C220" s="107" t="s">
-        <v>93</v>
-      </c>
-      <c r="D220" s="107" t="s">
-        <v>93</v>
-      </c>
       <c r="E220" s="144"/>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A221" s="96" t="s">
-        <v>880</v>
-      </c>
-      <c r="B221" s="33" t="s">
-        <v>881</v>
-      </c>
-      <c r="C221" s="107" t="s">
-        <v>34</v>
-      </c>
-      <c r="D221" s="107" t="s">
-        <v>93</v>
-      </c>
-      <c r="E221" s="144" t="s">
-        <v>179</v>
-      </c>
+      <c r="A221" s="89" t="s">
+        <v>2976</v>
+      </c>
+      <c r="B221" s="26" t="s">
+        <v>2935</v>
+      </c>
+      <c r="C221" s="135" t="s">
+        <v>415</v>
+      </c>
+      <c r="D221" s="135" t="s">
+        <v>415</v>
+      </c>
+      <c r="E221" s="144"/>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" s="96" t="s">
-        <v>882</v>
+        <v>870</v>
       </c>
       <c r="B222" s="33" t="s">
-        <v>883</v>
+        <v>871</v>
       </c>
       <c r="C222" s="107" t="s">
         <v>93</v>
@@ -17350,10 +17582,10 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" s="96" t="s">
-        <v>884</v>
+        <v>872</v>
       </c>
       <c r="B223" s="33" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="C223" s="107" t="s">
         <v>34</v>
@@ -17367,10 +17599,10 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" s="96" t="s">
-        <v>886</v>
+        <v>874</v>
       </c>
       <c r="B224" s="33" t="s">
-        <v>887</v>
+        <v>875</v>
       </c>
       <c r="C224" s="107" t="s">
         <v>93</v>
@@ -17382,10 +17614,10 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" s="96" t="s">
-        <v>888</v>
+        <v>876</v>
       </c>
       <c r="B225" s="33" t="s">
-        <v>889</v>
+        <v>877</v>
       </c>
       <c r="C225" s="107" t="s">
         <v>34</v>
@@ -17399,10 +17631,10 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" s="96" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="B226" s="33" t="s">
-        <v>891</v>
+        <v>879</v>
       </c>
       <c r="C226" s="107" t="s">
         <v>93</v>
@@ -17414,10 +17646,10 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" s="96" t="s">
-        <v>892</v>
+        <v>880</v>
       </c>
       <c r="B227" s="33" t="s">
-        <v>893</v>
+        <v>881</v>
       </c>
       <c r="C227" s="107" t="s">
         <v>34</v>
@@ -17431,10 +17663,10 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" s="96" t="s">
-        <v>894</v>
+        <v>882</v>
       </c>
       <c r="B228" s="33" t="s">
-        <v>895</v>
+        <v>883</v>
       </c>
       <c r="C228" s="107" t="s">
         <v>93</v>
@@ -17446,10 +17678,10 @@
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" s="96" t="s">
-        <v>896</v>
+        <v>884</v>
       </c>
       <c r="B229" s="33" t="s">
-        <v>897</v>
+        <v>885</v>
       </c>
       <c r="C229" s="107" t="s">
         <v>34</v>
@@ -17463,10 +17695,10 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" s="96" t="s">
-        <v>898</v>
+        <v>886</v>
       </c>
       <c r="B230" s="33" t="s">
-        <v>899</v>
+        <v>887</v>
       </c>
       <c r="C230" s="107" t="s">
         <v>93</v>
@@ -17478,10 +17710,10 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" s="96" t="s">
-        <v>900</v>
+        <v>888</v>
       </c>
       <c r="B231" s="33" t="s">
-        <v>901</v>
+        <v>889</v>
       </c>
       <c r="C231" s="107" t="s">
         <v>34</v>
@@ -17495,10 +17727,10 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" s="96" t="s">
-        <v>902</v>
+        <v>890</v>
       </c>
       <c r="B232" s="33" t="s">
-        <v>903</v>
+        <v>891</v>
       </c>
       <c r="C232" s="107" t="s">
         <v>93</v>
@@ -17510,10 +17742,10 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" s="96" t="s">
-        <v>904</v>
+        <v>892</v>
       </c>
       <c r="B233" s="33" t="s">
-        <v>905</v>
+        <v>893</v>
       </c>
       <c r="C233" s="107" t="s">
         <v>34</v>
@@ -17527,10 +17759,10 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" s="96" t="s">
-        <v>906</v>
+        <v>894</v>
       </c>
       <c r="B234" s="33" t="s">
-        <v>907</v>
+        <v>895</v>
       </c>
       <c r="C234" s="107" t="s">
         <v>93</v>
@@ -17542,10 +17774,10 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" s="96" t="s">
-        <v>908</v>
+        <v>896</v>
       </c>
       <c r="B235" s="33" t="s">
-        <v>909</v>
+        <v>897</v>
       </c>
       <c r="C235" s="107" t="s">
         <v>34</v>
@@ -17559,10 +17791,10 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" s="96" t="s">
-        <v>910</v>
+        <v>898</v>
       </c>
       <c r="B236" s="33" t="s">
-        <v>911</v>
+        <v>899</v>
       </c>
       <c r="C236" s="107" t="s">
         <v>93</v>
@@ -17574,10 +17806,10 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" s="96" t="s">
-        <v>912</v>
+        <v>900</v>
       </c>
       <c r="B237" s="33" t="s">
-        <v>913</v>
+        <v>901</v>
       </c>
       <c r="C237" s="107" t="s">
         <v>34</v>
@@ -17590,101 +17822,107 @@
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A238" s="97" t="s">
-        <v>914</v>
-      </c>
-      <c r="B238" s="34" t="s">
-        <v>915</v>
-      </c>
-      <c r="C238" s="147" t="s">
-        <v>415</v>
-      </c>
-      <c r="D238" s="147" t="s">
-        <v>415</v>
+      <c r="A238" s="96" t="s">
+        <v>902</v>
+      </c>
+      <c r="B238" s="33" t="s">
+        <v>903</v>
+      </c>
+      <c r="C238" s="107" t="s">
+        <v>93</v>
+      </c>
+      <c r="D238" s="107" t="s">
+        <v>93</v>
       </c>
       <c r="E238" s="144"/>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A239" s="97" t="s">
-        <v>916</v>
-      </c>
-      <c r="B239" s="34" t="s">
-        <v>917</v>
-      </c>
-      <c r="C239" s="147" t="s">
-        <v>415</v>
-      </c>
-      <c r="D239" s="147" t="s">
-        <v>415</v>
-      </c>
-      <c r="E239" s="144"/>
+      <c r="A239" s="96" t="s">
+        <v>904</v>
+      </c>
+      <c r="B239" s="33" t="s">
+        <v>905</v>
+      </c>
+      <c r="C239" s="107" t="s">
+        <v>34</v>
+      </c>
+      <c r="D239" s="107" t="s">
+        <v>93</v>
+      </c>
+      <c r="E239" s="144" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A240" s="97" t="s">
-        <v>918</v>
-      </c>
-      <c r="B240" s="34" t="s">
-        <v>919</v>
-      </c>
-      <c r="C240" s="147" t="s">
-        <v>415</v>
-      </c>
-      <c r="D240" s="147" t="s">
-        <v>415</v>
+      <c r="A240" s="96" t="s">
+        <v>906</v>
+      </c>
+      <c r="B240" s="33" t="s">
+        <v>907</v>
+      </c>
+      <c r="C240" s="107" t="s">
+        <v>93</v>
+      </c>
+      <c r="D240" s="107" t="s">
+        <v>93</v>
       </c>
       <c r="E240" s="144"/>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A241" s="97" t="s">
-        <v>920</v>
-      </c>
-      <c r="B241" s="34" t="s">
-        <v>921</v>
-      </c>
-      <c r="C241" s="147" t="s">
-        <v>415</v>
-      </c>
-      <c r="D241" s="147" t="s">
-        <v>415</v>
-      </c>
-      <c r="E241" s="144"/>
+      <c r="A241" s="96" t="s">
+        <v>908</v>
+      </c>
+      <c r="B241" s="33" t="s">
+        <v>909</v>
+      </c>
+      <c r="C241" s="107" t="s">
+        <v>34</v>
+      </c>
+      <c r="D241" s="107" t="s">
+        <v>93</v>
+      </c>
+      <c r="E241" s="144" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A242" s="97" t="s">
-        <v>922</v>
-      </c>
-      <c r="B242" s="34" t="s">
-        <v>923</v>
-      </c>
-      <c r="C242" s="147" t="s">
-        <v>415</v>
-      </c>
-      <c r="D242" s="147" t="s">
-        <v>415</v>
+      <c r="A242" s="96" t="s">
+        <v>910</v>
+      </c>
+      <c r="B242" s="33" t="s">
+        <v>911</v>
+      </c>
+      <c r="C242" s="107" t="s">
+        <v>93</v>
+      </c>
+      <c r="D242" s="107" t="s">
+        <v>93</v>
       </c>
       <c r="E242" s="144"/>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A243" s="97" t="s">
-        <v>924</v>
-      </c>
-      <c r="B243" s="34" t="s">
-        <v>925</v>
-      </c>
-      <c r="C243" s="147" t="s">
-        <v>415</v>
-      </c>
-      <c r="D243" s="147" t="s">
-        <v>415</v>
-      </c>
-      <c r="E243" s="144"/>
+      <c r="A243" s="96" t="s">
+        <v>912</v>
+      </c>
+      <c r="B243" s="33" t="s">
+        <v>913</v>
+      </c>
+      <c r="C243" s="107" t="s">
+        <v>34</v>
+      </c>
+      <c r="D243" s="107" t="s">
+        <v>93</v>
+      </c>
+      <c r="E243" s="144" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" s="97" t="s">
-        <v>926</v>
+        <v>914</v>
       </c>
       <c r="B244" s="34" t="s">
-        <v>927</v>
+        <v>915</v>
       </c>
       <c r="C244" s="147" t="s">
         <v>415</v>
@@ -17696,10 +17934,10 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" s="97" t="s">
-        <v>928</v>
+        <v>916</v>
       </c>
       <c r="B245" s="34" t="s">
-        <v>929</v>
+        <v>917</v>
       </c>
       <c r="C245" s="147" t="s">
         <v>415</v>
@@ -17711,10 +17949,10 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" s="97" t="s">
-        <v>930</v>
+        <v>918</v>
       </c>
       <c r="B246" s="34" t="s">
-        <v>931</v>
+        <v>919</v>
       </c>
       <c r="C246" s="147" t="s">
         <v>415</v>
@@ -17726,10 +17964,10 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" s="97" t="s">
-        <v>932</v>
+        <v>920</v>
       </c>
       <c r="B247" s="34" t="s">
-        <v>933</v>
+        <v>921</v>
       </c>
       <c r="C247" s="147" t="s">
         <v>415</v>
@@ -17739,12 +17977,12 @@
       </c>
       <c r="E247" s="144"/>
     </row>
-    <row r="248" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" s="97" t="s">
-        <v>934</v>
+        <v>922</v>
       </c>
       <c r="B248" s="34" t="s">
-        <v>935</v>
+        <v>923</v>
       </c>
       <c r="C248" s="147" t="s">
         <v>415</v>
@@ -17753,6 +17991,96 @@
         <v>415</v>
       </c>
       <c r="E248" s="144"/>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A249" s="97" t="s">
+        <v>924</v>
+      </c>
+      <c r="B249" s="34" t="s">
+        <v>925</v>
+      </c>
+      <c r="C249" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="D249" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="E249" s="144"/>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A250" s="97" t="s">
+        <v>926</v>
+      </c>
+      <c r="B250" s="34" t="s">
+        <v>927</v>
+      </c>
+      <c r="C250" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="D250" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="E250" s="144"/>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A251" s="97" t="s">
+        <v>928</v>
+      </c>
+      <c r="B251" s="34" t="s">
+        <v>929</v>
+      </c>
+      <c r="C251" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="D251" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="E251" s="144"/>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A252" s="97" t="s">
+        <v>930</v>
+      </c>
+      <c r="B252" s="34" t="s">
+        <v>931</v>
+      </c>
+      <c r="C252" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="D252" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="E252" s="144"/>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A253" s="97" t="s">
+        <v>932</v>
+      </c>
+      <c r="B253" s="34" t="s">
+        <v>933</v>
+      </c>
+      <c r="C253" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="D253" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="E253" s="144"/>
+    </row>
+    <row r="254" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A254" s="97" t="s">
+        <v>934</v>
+      </c>
+      <c r="B254" s="34" t="s">
+        <v>935</v>
+      </c>
+      <c r="C254" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="D254" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="E254" s="144"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17762,11 +18090,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:IN248"/>
+  <dimension ref="A1:IN254"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A249" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A222" sqref="A222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -20782,10 +21110,10 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="77" t="s">
-        <v>1311</v>
+        <v>2978</v>
       </c>
       <c r="B192" s="78" t="s">
-        <v>1312</v>
+        <v>2936</v>
       </c>
       <c r="C192" s="78" t="s">
         <v>93</v>
@@ -20797,10 +21125,10 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" s="77" t="s">
-        <v>1313</v>
+        <v>2979</v>
       </c>
       <c r="B193" s="78" t="s">
-        <v>1314</v>
+        <v>2937</v>
       </c>
       <c r="C193" s="78" t="s">
         <v>34</v>
@@ -20813,63 +21141,63 @@
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A194" s="79" t="s">
+      <c r="A194" s="77" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B194" s="78" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C194" s="78" t="s">
+        <v>93</v>
+      </c>
+      <c r="D194" s="78" t="s">
+        <v>93</v>
+      </c>
+      <c r="E194" s="144"/>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A195" s="77" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B195" s="78" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C195" s="78" t="s">
+        <v>34</v>
+      </c>
+      <c r="D195" s="78" t="s">
+        <v>93</v>
+      </c>
+      <c r="E195" s="144" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A196" s="79" t="s">
         <v>1315</v>
       </c>
-      <c r="B194" s="80" t="s">
+      <c r="B196" s="80" t="s">
         <v>1316</v>
       </c>
-      <c r="C194" s="80" t="s">
-        <v>93</v>
-      </c>
-      <c r="D194" s="80" t="s">
-        <v>93</v>
-      </c>
-      <c r="E194" s="144"/>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A195" s="79" t="s">
+      <c r="C196" s="80" t="s">
+        <v>93</v>
+      </c>
+      <c r="D196" s="80" t="s">
+        <v>93</v>
+      </c>
+      <c r="E196" s="144"/>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A197" s="79" t="s">
         <v>1317</v>
       </c>
-      <c r="B195" s="80" t="s">
+      <c r="B197" s="80" t="s">
         <v>1318</v>
       </c>
-      <c r="C195" s="80" t="s">
+      <c r="C197" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="D195" s="80" t="s">
-        <v>93</v>
-      </c>
-      <c r="E195" s="144" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A196" s="81" t="s">
-        <v>1319</v>
-      </c>
-      <c r="B196" s="82" t="s">
-        <v>1320</v>
-      </c>
-      <c r="C196" s="148" t="s">
-        <v>93</v>
-      </c>
-      <c r="D196" s="148" t="s">
-        <v>93</v>
-      </c>
-      <c r="E196" s="144"/>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A197" s="81" t="s">
-        <v>1321</v>
-      </c>
-      <c r="B197" s="82" t="s">
-        <v>1322</v>
-      </c>
-      <c r="C197" s="148" t="s">
-        <v>34</v>
-      </c>
-      <c r="D197" s="148" t="s">
+      <c r="D197" s="80" t="s">
         <v>93</v>
       </c>
       <c r="E197" s="144" t="s">
@@ -20878,10 +21206,10 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" s="81" t="s">
-        <v>1323</v>
+        <v>1319</v>
       </c>
       <c r="B198" s="82" t="s">
-        <v>1324</v>
+        <v>1320</v>
       </c>
       <c r="C198" s="148" t="s">
         <v>93</v>
@@ -20893,10 +21221,10 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" s="81" t="s">
-        <v>1325</v>
+        <v>1321</v>
       </c>
       <c r="B199" s="82" t="s">
-        <v>1326</v>
+        <v>1322</v>
       </c>
       <c r="C199" s="148" t="s">
         <v>34</v>
@@ -20909,71 +21237,75 @@
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A200" s="83" t="s">
-        <v>1327</v>
-      </c>
-      <c r="B200" s="84" t="s">
-        <v>1328</v>
-      </c>
-      <c r="C200" s="132" t="s">
-        <v>415</v>
-      </c>
-      <c r="D200" s="132" t="s">
-        <v>415</v>
+      <c r="A200" s="81" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B200" s="82" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C200" s="148" t="s">
+        <v>93</v>
+      </c>
+      <c r="D200" s="148" t="s">
+        <v>93</v>
       </c>
       <c r="E200" s="144"/>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A201" s="83" t="s">
-        <v>1329</v>
-      </c>
-      <c r="B201" s="84" t="s">
-        <v>1330</v>
-      </c>
-      <c r="C201" s="132" t="s">
-        <v>415</v>
-      </c>
-      <c r="D201" s="132" t="s">
-        <v>415</v>
-      </c>
-      <c r="E201" s="144"/>
+      <c r="A201" s="81" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B201" s="82" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C201" s="148" t="s">
+        <v>34</v>
+      </c>
+      <c r="D201" s="148" t="s">
+        <v>93</v>
+      </c>
+      <c r="E201" s="144" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A202" s="83" t="s">
-        <v>1331</v>
-      </c>
-      <c r="B202" s="84" t="s">
-        <v>1332</v>
-      </c>
-      <c r="C202" s="132" t="s">
-        <v>415</v>
-      </c>
-      <c r="D202" s="132" t="s">
-        <v>415</v>
+      <c r="A202" s="81" t="s">
+        <v>2980</v>
+      </c>
+      <c r="B202" s="82" t="s">
+        <v>2940</v>
+      </c>
+      <c r="C202" s="148" t="s">
+        <v>93</v>
+      </c>
+      <c r="D202" s="148" t="s">
+        <v>93</v>
       </c>
       <c r="E202" s="144"/>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A203" s="83" t="s">
-        <v>1333</v>
-      </c>
-      <c r="B203" s="84" t="s">
-        <v>1334</v>
-      </c>
-      <c r="C203" s="132" t="s">
-        <v>415</v>
-      </c>
-      <c r="D203" s="132" t="s">
-        <v>415</v>
-      </c>
-      <c r="E203" s="144"/>
+      <c r="A203" s="81" t="s">
+        <v>2981</v>
+      </c>
+      <c r="B203" s="82" t="s">
+        <v>2941</v>
+      </c>
+      <c r="C203" s="148" t="s">
+        <v>34</v>
+      </c>
+      <c r="D203" s="148" t="s">
+        <v>93</v>
+      </c>
+      <c r="E203" s="144" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" s="83" t="s">
-        <v>1335</v>
+        <v>1327</v>
       </c>
       <c r="B204" s="84" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
       <c r="C204" s="132" t="s">
         <v>415</v>
@@ -20985,10 +21317,10 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" s="83" t="s">
-        <v>1337</v>
+        <v>1329</v>
       </c>
       <c r="B205" s="84" t="s">
-        <v>1338</v>
+        <v>1330</v>
       </c>
       <c r="C205" s="132" t="s">
         <v>415</v>
@@ -21000,10 +21332,10 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" s="83" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
       <c r="B206" s="84" t="s">
-        <v>1340</v>
+        <v>1332</v>
       </c>
       <c r="C206" s="132" t="s">
         <v>415</v>
@@ -21015,10 +21347,10 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" s="83" t="s">
-        <v>1341</v>
+        <v>1333</v>
       </c>
       <c r="B207" s="84" t="s">
-        <v>1342</v>
+        <v>1334</v>
       </c>
       <c r="C207" s="132" t="s">
         <v>415</v>
@@ -21030,10 +21362,10 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" s="83" t="s">
-        <v>1343</v>
+        <v>1335</v>
       </c>
       <c r="B208" s="84" t="s">
-        <v>1344</v>
+        <v>1336</v>
       </c>
       <c r="C208" s="132" t="s">
         <v>415</v>
@@ -21045,10 +21377,10 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" s="83" t="s">
-        <v>1345</v>
+        <v>1337</v>
       </c>
       <c r="B209" s="84" t="s">
-        <v>1346</v>
+        <v>1338</v>
       </c>
       <c r="C209" s="132" t="s">
         <v>415</v>
@@ -21060,10 +21392,10 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" s="83" t="s">
-        <v>1347</v>
+        <v>1339</v>
       </c>
       <c r="B210" s="84" t="s">
-        <v>1348</v>
+        <v>1340</v>
       </c>
       <c r="C210" s="132" t="s">
         <v>415</v>
@@ -21074,182 +21406,176 @@
       <c r="E210" s="144"/>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A211" s="85" t="s">
+      <c r="A211" s="83" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B211" s="84" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C211" s="132" t="s">
+        <v>415</v>
+      </c>
+      <c r="D211" s="132" t="s">
+        <v>415</v>
+      </c>
+      <c r="E211" s="144"/>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A212" s="83" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B212" s="84" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C212" s="132" t="s">
+        <v>415</v>
+      </c>
+      <c r="D212" s="132" t="s">
+        <v>415</v>
+      </c>
+      <c r="E212" s="144"/>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A213" s="83" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B213" s="84" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C213" s="132" t="s">
+        <v>415</v>
+      </c>
+      <c r="D213" s="132" t="s">
+        <v>415</v>
+      </c>
+      <c r="E213" s="144"/>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A214" s="83" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B214" s="84" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C214" s="132" t="s">
+        <v>415</v>
+      </c>
+      <c r="D214" s="132" t="s">
+        <v>415</v>
+      </c>
+      <c r="E214" s="144"/>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A215" s="85" t="s">
         <v>1349</v>
       </c>
-      <c r="B211" s="86" t="s">
+      <c r="B215" s="86" t="s">
         <v>1350</v>
       </c>
-      <c r="C211" s="133" t="s">
+      <c r="C215" s="133" t="s">
         <v>415</v>
       </c>
-      <c r="D211" s="133" t="s">
+      <c r="D215" s="133" t="s">
         <v>415</v>
       </c>
-      <c r="E211" s="144"/>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A212" s="85" t="s">
+      <c r="E215" s="144"/>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A216" s="85" t="s">
+        <v>2982</v>
+      </c>
+      <c r="B216" s="86" t="s">
+        <v>2938</v>
+      </c>
+      <c r="C216" s="133" t="s">
+        <v>415</v>
+      </c>
+      <c r="D216" s="133" t="s">
+        <v>415</v>
+      </c>
+      <c r="E216" s="144"/>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A217" s="85" t="s">
         <v>1351</v>
       </c>
-      <c r="B212" s="86" t="s">
+      <c r="B217" s="86" t="s">
         <v>1352</v>
       </c>
-      <c r="C212" s="133" t="s">
+      <c r="C217" s="133" t="s">
         <v>415</v>
       </c>
-      <c r="D212" s="133" t="s">
+      <c r="D217" s="133" t="s">
         <v>415</v>
       </c>
-      <c r="E212" s="144"/>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A213" s="87" t="s">
+      <c r="E217" s="144"/>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A218" s="87" t="s">
         <v>1353</v>
       </c>
-      <c r="B213" s="88" t="s">
+      <c r="B218" s="88" t="s">
         <v>1354</v>
       </c>
-      <c r="C213" s="134" t="s">
+      <c r="C218" s="134" t="s">
         <v>415</v>
       </c>
-      <c r="D213" s="134" t="s">
+      <c r="D218" s="134" t="s">
         <v>415</v>
       </c>
-      <c r="E213" s="144"/>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A214" s="89" t="s">
+      <c r="E218" s="144"/>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A219" s="89" t="s">
         <v>1355</v>
       </c>
-      <c r="B214" s="90" t="s">
+      <c r="B219" s="90" t="s">
         <v>1356</v>
       </c>
-      <c r="C214" s="135" t="s">
+      <c r="C219" s="135" t="s">
         <v>415</v>
       </c>
-      <c r="D214" s="135" t="s">
+      <c r="D219" s="135" t="s">
         <v>415</v>
       </c>
-      <c r="E214" s="144"/>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A215" s="89" t="s">
+      <c r="E219" s="144"/>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A220" s="89" t="s">
         <v>1357</v>
       </c>
-      <c r="B215" s="90" t="s">
+      <c r="B220" s="90" t="s">
         <v>1358</v>
       </c>
-      <c r="C215" s="135" t="s">
+      <c r="C220" s="135" t="s">
         <v>415</v>
       </c>
-      <c r="D215" s="135" t="s">
+      <c r="D220" s="135" t="s">
         <v>415</v>
       </c>
-      <c r="E215" s="144"/>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A216" s="96" t="s">
-        <v>1359</v>
-      </c>
-      <c r="B216" s="107" t="s">
-        <v>1360</v>
-      </c>
-      <c r="C216" s="107" t="s">
-        <v>93</v>
-      </c>
-      <c r="D216" s="107" t="s">
-        <v>93</v>
-      </c>
-      <c r="E216" s="144"/>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A217" s="96" t="s">
-        <v>1361</v>
-      </c>
-      <c r="B217" s="107" t="s">
-        <v>1362</v>
-      </c>
-      <c r="C217" s="107" t="s">
-        <v>34</v>
-      </c>
-      <c r="D217" s="107" t="s">
-        <v>93</v>
-      </c>
-      <c r="E217" s="144" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A218" s="96" t="s">
-        <v>1363</v>
-      </c>
-      <c r="B218" s="107" t="s">
-        <v>1364</v>
-      </c>
-      <c r="C218" s="107" t="s">
-        <v>93</v>
-      </c>
-      <c r="D218" s="107" t="s">
-        <v>93</v>
-      </c>
-      <c r="E218" s="144"/>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A219" s="96" t="s">
-        <v>1365</v>
-      </c>
-      <c r="B219" s="107" t="s">
-        <v>1366</v>
-      </c>
-      <c r="C219" s="107" t="s">
-        <v>34</v>
-      </c>
-      <c r="D219" s="107" t="s">
-        <v>93</v>
-      </c>
-      <c r="E219" s="144" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A220" s="96" t="s">
-        <v>1367</v>
-      </c>
-      <c r="B220" s="107" t="s">
-        <v>1368</v>
-      </c>
-      <c r="C220" s="107" t="s">
-        <v>93</v>
-      </c>
-      <c r="D220" s="107" t="s">
-        <v>93</v>
-      </c>
       <c r="E220" s="144"/>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A221" s="96" t="s">
-        <v>1369</v>
-      </c>
-      <c r="B221" s="107" t="s">
-        <v>1370</v>
-      </c>
-      <c r="C221" s="107" t="s">
-        <v>34</v>
-      </c>
-      <c r="D221" s="107" t="s">
-        <v>93</v>
-      </c>
-      <c r="E221" s="144" t="s">
-        <v>179</v>
-      </c>
+      <c r="A221" s="89" t="s">
+        <v>2983</v>
+      </c>
+      <c r="B221" s="90" t="s">
+        <v>2939</v>
+      </c>
+      <c r="C221" s="135" t="s">
+        <v>415</v>
+      </c>
+      <c r="D221" s="135" t="s">
+        <v>415</v>
+      </c>
+      <c r="E221" s="144"/>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" s="96" t="s">
-        <v>1371</v>
+        <v>1359</v>
       </c>
       <c r="B222" s="107" t="s">
-        <v>1372</v>
+        <v>1360</v>
       </c>
       <c r="C222" s="107" t="s">
         <v>93</v>
@@ -21261,10 +21587,10 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" s="96" t="s">
-        <v>1373</v>
+        <v>1361</v>
       </c>
       <c r="B223" s="107" t="s">
-        <v>1374</v>
+        <v>1362</v>
       </c>
       <c r="C223" s="107" t="s">
         <v>34</v>
@@ -21278,10 +21604,10 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" s="96" t="s">
-        <v>1375</v>
+        <v>1363</v>
       </c>
       <c r="B224" s="107" t="s">
-        <v>1376</v>
+        <v>1364</v>
       </c>
       <c r="C224" s="107" t="s">
         <v>93</v>
@@ -21293,10 +21619,10 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" s="96" t="s">
-        <v>1377</v>
+        <v>1365</v>
       </c>
       <c r="B225" s="107" t="s">
-        <v>1378</v>
+        <v>1366</v>
       </c>
       <c r="C225" s="107" t="s">
         <v>34</v>
@@ -21310,10 +21636,10 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" s="96" t="s">
-        <v>1379</v>
+        <v>1367</v>
       </c>
       <c r="B226" s="107" t="s">
-        <v>1380</v>
+        <v>1368</v>
       </c>
       <c r="C226" s="107" t="s">
         <v>93</v>
@@ -21325,10 +21651,10 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" s="96" t="s">
-        <v>1381</v>
+        <v>1369</v>
       </c>
       <c r="B227" s="107" t="s">
-        <v>1382</v>
+        <v>1370</v>
       </c>
       <c r="C227" s="107" t="s">
         <v>34</v>
@@ -21342,10 +21668,10 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" s="96" t="s">
-        <v>1383</v>
+        <v>1371</v>
       </c>
       <c r="B228" s="107" t="s">
-        <v>1384</v>
+        <v>1372</v>
       </c>
       <c r="C228" s="107" t="s">
         <v>93</v>
@@ -21357,10 +21683,10 @@
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" s="96" t="s">
-        <v>1385</v>
+        <v>1373</v>
       </c>
       <c r="B229" s="107" t="s">
-        <v>1386</v>
+        <v>1374</v>
       </c>
       <c r="C229" s="107" t="s">
         <v>34</v>
@@ -21374,10 +21700,10 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" s="96" t="s">
-        <v>1387</v>
+        <v>1375</v>
       </c>
       <c r="B230" s="107" t="s">
-        <v>1388</v>
+        <v>1376</v>
       </c>
       <c r="C230" s="107" t="s">
         <v>93</v>
@@ -21389,10 +21715,10 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" s="96" t="s">
-        <v>1389</v>
+        <v>1377</v>
       </c>
       <c r="B231" s="107" t="s">
-        <v>1390</v>
+        <v>1378</v>
       </c>
       <c r="C231" s="107" t="s">
         <v>34</v>
@@ -21406,10 +21732,10 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" s="96" t="s">
-        <v>1391</v>
+        <v>1379</v>
       </c>
       <c r="B232" s="107" t="s">
-        <v>1392</v>
+        <v>1380</v>
       </c>
       <c r="C232" s="107" t="s">
         <v>93</v>
@@ -21421,10 +21747,10 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" s="96" t="s">
-        <v>1393</v>
+        <v>1381</v>
       </c>
       <c r="B233" s="107" t="s">
-        <v>1394</v>
+        <v>1382</v>
       </c>
       <c r="C233" s="107" t="s">
         <v>34</v>
@@ -21438,10 +21764,10 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" s="96" t="s">
-        <v>1395</v>
+        <v>1383</v>
       </c>
       <c r="B234" s="107" t="s">
-        <v>1396</v>
+        <v>1384</v>
       </c>
       <c r="C234" s="107" t="s">
         <v>93</v>
@@ -21453,10 +21779,10 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" s="96" t="s">
-        <v>1397</v>
+        <v>1385</v>
       </c>
       <c r="B235" s="107" t="s">
-        <v>1398</v>
+        <v>1386</v>
       </c>
       <c r="C235" s="107" t="s">
         <v>34</v>
@@ -21470,10 +21796,10 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" s="96" t="s">
-        <v>1399</v>
+        <v>1387</v>
       </c>
       <c r="B236" s="107" t="s">
-        <v>1400</v>
+        <v>1388</v>
       </c>
       <c r="C236" s="107" t="s">
         <v>93</v>
@@ -21485,10 +21811,10 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" s="96" t="s">
-        <v>1401</v>
+        <v>1389</v>
       </c>
       <c r="B237" s="107" t="s">
-        <v>1402</v>
+        <v>1390</v>
       </c>
       <c r="C237" s="107" t="s">
         <v>34</v>
@@ -21501,101 +21827,107 @@
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A238" s="97" t="s">
-        <v>1403</v>
-      </c>
-      <c r="B238" s="108" t="s">
-        <v>1404</v>
-      </c>
-      <c r="C238" s="147" t="s">
-        <v>415</v>
-      </c>
-      <c r="D238" s="147" t="s">
-        <v>415</v>
+      <c r="A238" s="96" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B238" s="107" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C238" s="107" t="s">
+        <v>93</v>
+      </c>
+      <c r="D238" s="107" t="s">
+        <v>93</v>
       </c>
       <c r="E238" s="144"/>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A239" s="97" t="s">
-        <v>1405</v>
-      </c>
-      <c r="B239" s="108" t="s">
-        <v>1406</v>
-      </c>
-      <c r="C239" s="147" t="s">
-        <v>415</v>
-      </c>
-      <c r="D239" s="147" t="s">
-        <v>415</v>
-      </c>
-      <c r="E239" s="144"/>
+      <c r="A239" s="96" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B239" s="107" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C239" s="107" t="s">
+        <v>34</v>
+      </c>
+      <c r="D239" s="107" t="s">
+        <v>93</v>
+      </c>
+      <c r="E239" s="144" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A240" s="97" t="s">
-        <v>1407</v>
-      </c>
-      <c r="B240" s="108" t="s">
-        <v>1408</v>
-      </c>
-      <c r="C240" s="147" t="s">
-        <v>415</v>
-      </c>
-      <c r="D240" s="147" t="s">
-        <v>415</v>
+      <c r="A240" s="96" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B240" s="107" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C240" s="107" t="s">
+        <v>93</v>
+      </c>
+      <c r="D240" s="107" t="s">
+        <v>93</v>
       </c>
       <c r="E240" s="144"/>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A241" s="97" t="s">
-        <v>1409</v>
-      </c>
-      <c r="B241" s="108" t="s">
-        <v>1410</v>
-      </c>
-      <c r="C241" s="147" t="s">
-        <v>415</v>
-      </c>
-      <c r="D241" s="147" t="s">
-        <v>415</v>
-      </c>
-      <c r="E241" s="144"/>
+      <c r="A241" s="96" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B241" s="107" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C241" s="107" t="s">
+        <v>34</v>
+      </c>
+      <c r="D241" s="107" t="s">
+        <v>93</v>
+      </c>
+      <c r="E241" s="144" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A242" s="97" t="s">
-        <v>1411</v>
-      </c>
-      <c r="B242" s="108" t="s">
-        <v>1412</v>
-      </c>
-      <c r="C242" s="147" t="s">
-        <v>415</v>
-      </c>
-      <c r="D242" s="147" t="s">
-        <v>415</v>
+      <c r="A242" s="96" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B242" s="107" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C242" s="107" t="s">
+        <v>93</v>
+      </c>
+      <c r="D242" s="107" t="s">
+        <v>93</v>
       </c>
       <c r="E242" s="144"/>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A243" s="97" t="s">
-        <v>1413</v>
-      </c>
-      <c r="B243" s="108" t="s">
-        <v>1414</v>
-      </c>
-      <c r="C243" s="147" t="s">
-        <v>415</v>
-      </c>
-      <c r="D243" s="147" t="s">
-        <v>415</v>
-      </c>
-      <c r="E243" s="144"/>
+      <c r="A243" s="96" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B243" s="107" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C243" s="107" t="s">
+        <v>34</v>
+      </c>
+      <c r="D243" s="107" t="s">
+        <v>93</v>
+      </c>
+      <c r="E243" s="144" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" s="97" t="s">
-        <v>1415</v>
+        <v>1403</v>
       </c>
       <c r="B244" s="108" t="s">
-        <v>1416</v>
+        <v>1404</v>
       </c>
       <c r="C244" s="147" t="s">
         <v>415</v>
@@ -21607,10 +21939,10 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" s="97" t="s">
-        <v>1417</v>
+        <v>1405</v>
       </c>
       <c r="B245" s="108" t="s">
-        <v>1418</v>
+        <v>1406</v>
       </c>
       <c r="C245" s="147" t="s">
         <v>415</v>
@@ -21622,10 +21954,10 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" s="97" t="s">
-        <v>1419</v>
+        <v>1407</v>
       </c>
       <c r="B246" s="108" t="s">
-        <v>1420</v>
+        <v>1408</v>
       </c>
       <c r="C246" s="147" t="s">
         <v>415</v>
@@ -21637,10 +21969,10 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" s="97" t="s">
-        <v>1421</v>
+        <v>1409</v>
       </c>
       <c r="B247" s="108" t="s">
-        <v>1422</v>
+        <v>1410</v>
       </c>
       <c r="C247" s="147" t="s">
         <v>415</v>
@@ -21650,12 +21982,12 @@
       </c>
       <c r="E247" s="144"/>
     </row>
-    <row r="248" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" s="97" t="s">
-        <v>1423</v>
+        <v>1411</v>
       </c>
       <c r="B248" s="108" t="s">
-        <v>1424</v>
+        <v>1412</v>
       </c>
       <c r="C248" s="147" t="s">
         <v>415</v>
@@ -21664,6 +21996,96 @@
         <v>415</v>
       </c>
       <c r="E248" s="144"/>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A249" s="97" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B249" s="108" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C249" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="D249" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="E249" s="144"/>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A250" s="97" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B250" s="108" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C250" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="D250" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="E250" s="144"/>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A251" s="97" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B251" s="108" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C251" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="D251" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="E251" s="144"/>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A252" s="97" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B252" s="108" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C252" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="D252" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="E252" s="144"/>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A253" s="97" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B253" s="108" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C253" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="D253" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="E253" s="144"/>
+    </row>
+    <row r="254" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A254" s="97" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B254" s="108" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C254" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="D254" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="E254" s="144"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21673,11 +22095,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:IN248"/>
+  <dimension ref="A1:IN254"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A198" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A222" sqref="A222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -24693,10 +25115,10 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="113" t="s">
-        <v>1799</v>
+        <v>2984</v>
       </c>
       <c r="B192" s="114" t="s">
-        <v>1800</v>
+        <v>2942</v>
       </c>
       <c r="C192" s="78" t="s">
         <v>93</v>
@@ -24708,10 +25130,10 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" s="113" t="s">
-        <v>1801</v>
+        <v>2985</v>
       </c>
       <c r="B193" s="114" t="s">
-        <v>1802</v>
+        <v>2943</v>
       </c>
       <c r="C193" s="78" t="s">
         <v>34</v>
@@ -24724,63 +25146,63 @@
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A194" s="115" t="s">
+      <c r="A194" s="113" t="s">
+        <v>1799</v>
+      </c>
+      <c r="B194" s="114" t="s">
+        <v>1800</v>
+      </c>
+      <c r="C194" s="78" t="s">
+        <v>93</v>
+      </c>
+      <c r="D194" s="78" t="s">
+        <v>93</v>
+      </c>
+      <c r="E194" s="144"/>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A195" s="113" t="s">
+        <v>1801</v>
+      </c>
+      <c r="B195" s="114" t="s">
+        <v>1802</v>
+      </c>
+      <c r="C195" s="78" t="s">
+        <v>34</v>
+      </c>
+      <c r="D195" s="78" t="s">
+        <v>93</v>
+      </c>
+      <c r="E195" s="144" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A196" s="115" t="s">
         <v>1803</v>
       </c>
-      <c r="B194" s="116" t="s">
+      <c r="B196" s="116" t="s">
         <v>1804</v>
       </c>
-      <c r="C194" s="80" t="s">
-        <v>93</v>
-      </c>
-      <c r="D194" s="80" t="s">
-        <v>93</v>
-      </c>
-      <c r="E194" s="144"/>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A195" s="115" t="s">
+      <c r="C196" s="80" t="s">
+        <v>93</v>
+      </c>
+      <c r="D196" s="80" t="s">
+        <v>93</v>
+      </c>
+      <c r="E196" s="144"/>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A197" s="115" t="s">
         <v>1805</v>
       </c>
-      <c r="B195" s="116" t="s">
+      <c r="B197" s="116" t="s">
         <v>1806</v>
       </c>
-      <c r="C195" s="80" t="s">
+      <c r="C197" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="D195" s="80" t="s">
-        <v>93</v>
-      </c>
-      <c r="E195" s="144" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A196" s="117" t="s">
-        <v>1807</v>
-      </c>
-      <c r="B196" s="118" t="s">
-        <v>1808</v>
-      </c>
-      <c r="C196" s="148" t="s">
-        <v>93</v>
-      </c>
-      <c r="D196" s="148" t="s">
-        <v>93</v>
-      </c>
-      <c r="E196" s="144"/>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A197" s="117" t="s">
-        <v>1809</v>
-      </c>
-      <c r="B197" s="118" t="s">
-        <v>1810</v>
-      </c>
-      <c r="C197" s="148" t="s">
-        <v>34</v>
-      </c>
-      <c r="D197" s="148" t="s">
+      <c r="D197" s="80" t="s">
         <v>93</v>
       </c>
       <c r="E197" s="144" t="s">
@@ -24789,10 +25211,10 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" s="117" t="s">
-        <v>1811</v>
+        <v>1807</v>
       </c>
       <c r="B198" s="118" t="s">
-        <v>1812</v>
+        <v>1808</v>
       </c>
       <c r="C198" s="148" t="s">
         <v>93</v>
@@ -24804,10 +25226,10 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" s="117" t="s">
-        <v>1813</v>
+        <v>1809</v>
       </c>
       <c r="B199" s="118" t="s">
-        <v>1814</v>
+        <v>1810</v>
       </c>
       <c r="C199" s="148" t="s">
         <v>34</v>
@@ -24820,71 +25242,75 @@
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A200" s="83" t="s">
-        <v>1815</v>
-      </c>
-      <c r="B200" s="84" t="s">
-        <v>1816</v>
-      </c>
-      <c r="C200" s="132" t="s">
-        <v>415</v>
-      </c>
-      <c r="D200" s="132" t="s">
-        <v>415</v>
+      <c r="A200" s="117" t="s">
+        <v>1811</v>
+      </c>
+      <c r="B200" s="118" t="s">
+        <v>1812</v>
+      </c>
+      <c r="C200" s="148" t="s">
+        <v>93</v>
+      </c>
+      <c r="D200" s="148" t="s">
+        <v>93</v>
       </c>
       <c r="E200" s="144"/>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A201" s="83" t="s">
-        <v>1817</v>
-      </c>
-      <c r="B201" s="84" t="s">
-        <v>1818</v>
-      </c>
-      <c r="C201" s="132" t="s">
-        <v>415</v>
-      </c>
-      <c r="D201" s="132" t="s">
-        <v>415</v>
-      </c>
-      <c r="E201" s="144"/>
+      <c r="A201" s="117" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B201" s="118" t="s">
+        <v>1814</v>
+      </c>
+      <c r="C201" s="148" t="s">
+        <v>34</v>
+      </c>
+      <c r="D201" s="148" t="s">
+        <v>93</v>
+      </c>
+      <c r="E201" s="144" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A202" s="83" t="s">
-        <v>1819</v>
-      </c>
-      <c r="B202" s="84" t="s">
-        <v>1820</v>
-      </c>
-      <c r="C202" s="132" t="s">
-        <v>415</v>
-      </c>
-      <c r="D202" s="132" t="s">
-        <v>415</v>
+      <c r="A202" s="117" t="s">
+        <v>2986</v>
+      </c>
+      <c r="B202" s="118" t="s">
+        <v>2944</v>
+      </c>
+      <c r="C202" s="148" t="s">
+        <v>93</v>
+      </c>
+      <c r="D202" s="148" t="s">
+        <v>93</v>
       </c>
       <c r="E202" s="144"/>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A203" s="83" t="s">
-        <v>1821</v>
-      </c>
-      <c r="B203" s="84" t="s">
-        <v>1822</v>
-      </c>
-      <c r="C203" s="132" t="s">
-        <v>415</v>
-      </c>
-      <c r="D203" s="132" t="s">
-        <v>415</v>
-      </c>
-      <c r="E203" s="144"/>
+      <c r="A203" s="117" t="s">
+        <v>2987</v>
+      </c>
+      <c r="B203" s="118" t="s">
+        <v>2945</v>
+      </c>
+      <c r="C203" s="148" t="s">
+        <v>34</v>
+      </c>
+      <c r="D203" s="148" t="s">
+        <v>93</v>
+      </c>
+      <c r="E203" s="144" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" s="83" t="s">
-        <v>1823</v>
+        <v>1815</v>
       </c>
       <c r="B204" s="84" t="s">
-        <v>1824</v>
+        <v>1816</v>
       </c>
       <c r="C204" s="132" t="s">
         <v>415</v>
@@ -24896,10 +25322,10 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" s="83" t="s">
-        <v>1825</v>
+        <v>1817</v>
       </c>
       <c r="B205" s="84" t="s">
-        <v>1826</v>
+        <v>1818</v>
       </c>
       <c r="C205" s="132" t="s">
         <v>415</v>
@@ -24911,10 +25337,10 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" s="83" t="s">
-        <v>1827</v>
+        <v>1819</v>
       </c>
       <c r="B206" s="84" t="s">
-        <v>1828</v>
+        <v>1820</v>
       </c>
       <c r="C206" s="132" t="s">
         <v>415</v>
@@ -24926,10 +25352,10 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" s="83" t="s">
-        <v>1829</v>
+        <v>1821</v>
       </c>
       <c r="B207" s="84" t="s">
-        <v>1830</v>
+        <v>1822</v>
       </c>
       <c r="C207" s="132" t="s">
         <v>415</v>
@@ -24941,10 +25367,10 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" s="83" t="s">
-        <v>1831</v>
+        <v>1823</v>
       </c>
       <c r="B208" s="84" t="s">
-        <v>1832</v>
+        <v>1824</v>
       </c>
       <c r="C208" s="132" t="s">
         <v>415</v>
@@ -24956,10 +25382,10 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" s="83" t="s">
-        <v>1833</v>
+        <v>1825</v>
       </c>
       <c r="B209" s="84" t="s">
-        <v>1834</v>
+        <v>1826</v>
       </c>
       <c r="C209" s="132" t="s">
         <v>415</v>
@@ -24971,10 +25397,10 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" s="83" t="s">
-        <v>1835</v>
+        <v>1827</v>
       </c>
       <c r="B210" s="84" t="s">
-        <v>1836</v>
+        <v>1828</v>
       </c>
       <c r="C210" s="132" t="s">
         <v>415</v>
@@ -24985,182 +25411,176 @@
       <c r="E210" s="144"/>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A211" s="85" t="s">
+      <c r="A211" s="83" t="s">
+        <v>1829</v>
+      </c>
+      <c r="B211" s="84" t="s">
+        <v>1830</v>
+      </c>
+      <c r="C211" s="132" t="s">
+        <v>415</v>
+      </c>
+      <c r="D211" s="132" t="s">
+        <v>415</v>
+      </c>
+      <c r="E211" s="144"/>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A212" s="83" t="s">
+        <v>1831</v>
+      </c>
+      <c r="B212" s="84" t="s">
+        <v>1832</v>
+      </c>
+      <c r="C212" s="132" t="s">
+        <v>415</v>
+      </c>
+      <c r="D212" s="132" t="s">
+        <v>415</v>
+      </c>
+      <c r="E212" s="144"/>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A213" s="83" t="s">
+        <v>1833</v>
+      </c>
+      <c r="B213" s="84" t="s">
+        <v>1834</v>
+      </c>
+      <c r="C213" s="132" t="s">
+        <v>415</v>
+      </c>
+      <c r="D213" s="132" t="s">
+        <v>415</v>
+      </c>
+      <c r="E213" s="144"/>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A214" s="83" t="s">
+        <v>1835</v>
+      </c>
+      <c r="B214" s="84" t="s">
+        <v>1836</v>
+      </c>
+      <c r="C214" s="132" t="s">
+        <v>415</v>
+      </c>
+      <c r="D214" s="132" t="s">
+        <v>415</v>
+      </c>
+      <c r="E214" s="144"/>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A215" s="85" t="s">
         <v>1837</v>
       </c>
-      <c r="B211" s="86" t="s">
+      <c r="B215" s="86" t="s">
         <v>1838</v>
       </c>
-      <c r="C211" s="133" t="s">
+      <c r="C215" s="133" t="s">
         <v>415</v>
       </c>
-      <c r="D211" s="133" t="s">
+      <c r="D215" s="133" t="s">
         <v>415</v>
       </c>
-      <c r="E211" s="144"/>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A212" s="85" t="s">
+      <c r="E215" s="144"/>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A216" s="85" t="s">
+        <v>2988</v>
+      </c>
+      <c r="B216" s="86" t="s">
+        <v>2946</v>
+      </c>
+      <c r="C216" s="133" t="s">
+        <v>415</v>
+      </c>
+      <c r="D216" s="133" t="s">
+        <v>415</v>
+      </c>
+      <c r="E216" s="144"/>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A217" s="85" t="s">
         <v>1839</v>
       </c>
-      <c r="B212" s="86" t="s">
+      <c r="B217" s="86" t="s">
         <v>1840</v>
       </c>
-      <c r="C212" s="133" t="s">
+      <c r="C217" s="133" t="s">
         <v>415</v>
       </c>
-      <c r="D212" s="133" t="s">
+      <c r="D217" s="133" t="s">
         <v>415</v>
       </c>
-      <c r="E212" s="144"/>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A213" s="87" t="s">
+      <c r="E217" s="144"/>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A218" s="87" t="s">
         <v>1841</v>
       </c>
-      <c r="B213" s="88" t="s">
+      <c r="B218" s="88" t="s">
         <v>1842</v>
       </c>
-      <c r="C213" s="134" t="s">
+      <c r="C218" s="134" t="s">
         <v>415</v>
       </c>
-      <c r="D213" s="134" t="s">
+      <c r="D218" s="134" t="s">
         <v>415</v>
       </c>
-      <c r="E213" s="144"/>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A214" s="89" t="s">
+      <c r="E218" s="144"/>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A219" s="89" t="s">
         <v>1843</v>
       </c>
-      <c r="B214" s="90" t="s">
+      <c r="B219" s="90" t="s">
         <v>1844</v>
       </c>
-      <c r="C214" s="135" t="s">
+      <c r="C219" s="135" t="s">
         <v>415</v>
       </c>
-      <c r="D214" s="135" t="s">
+      <c r="D219" s="135" t="s">
         <v>415</v>
       </c>
-      <c r="E214" s="144"/>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A215" s="89" t="s">
+      <c r="E219" s="144"/>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A220" s="89" t="s">
         <v>1845</v>
       </c>
-      <c r="B215" s="90" t="s">
+      <c r="B220" s="90" t="s">
         <v>1846</v>
       </c>
-      <c r="C215" s="135" t="s">
+      <c r="C220" s="135" t="s">
         <v>415</v>
       </c>
-      <c r="D215" s="135" t="s">
+      <c r="D220" s="135" t="s">
         <v>415</v>
       </c>
-      <c r="E215" s="144"/>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A216" s="119" t="s">
-        <v>1847</v>
-      </c>
-      <c r="B216" s="120" t="s">
-        <v>1848</v>
-      </c>
-      <c r="C216" s="107" t="s">
-        <v>93</v>
-      </c>
-      <c r="D216" s="107" t="s">
-        <v>93</v>
-      </c>
-      <c r="E216" s="144"/>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A217" s="119" t="s">
-        <v>1849</v>
-      </c>
-      <c r="B217" s="120" t="s">
-        <v>1850</v>
-      </c>
-      <c r="C217" s="107" t="s">
-        <v>34</v>
-      </c>
-      <c r="D217" s="107" t="s">
-        <v>93</v>
-      </c>
-      <c r="E217" s="144" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A218" s="119" t="s">
-        <v>1851</v>
-      </c>
-      <c r="B218" s="120" t="s">
-        <v>1852</v>
-      </c>
-      <c r="C218" s="107" t="s">
-        <v>93</v>
-      </c>
-      <c r="D218" s="107" t="s">
-        <v>93</v>
-      </c>
-      <c r="E218" s="144"/>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A219" s="119" t="s">
-        <v>1853</v>
-      </c>
-      <c r="B219" s="120" t="s">
-        <v>1854</v>
-      </c>
-      <c r="C219" s="107" t="s">
-        <v>34</v>
-      </c>
-      <c r="D219" s="107" t="s">
-        <v>93</v>
-      </c>
-      <c r="E219" s="144" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A220" s="119" t="s">
-        <v>1855</v>
-      </c>
-      <c r="B220" s="120" t="s">
-        <v>1856</v>
-      </c>
-      <c r="C220" s="107" t="s">
-        <v>93</v>
-      </c>
-      <c r="D220" s="107" t="s">
-        <v>93</v>
-      </c>
       <c r="E220" s="144"/>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A221" s="119" t="s">
-        <v>1857</v>
-      </c>
-      <c r="B221" s="120" t="s">
-        <v>1858</v>
-      </c>
-      <c r="C221" s="107" t="s">
-        <v>34</v>
-      </c>
-      <c r="D221" s="107" t="s">
-        <v>93</v>
-      </c>
-      <c r="E221" s="144" t="s">
-        <v>179</v>
-      </c>
+      <c r="A221" s="89" t="s">
+        <v>2989</v>
+      </c>
+      <c r="B221" s="90" t="s">
+        <v>2947</v>
+      </c>
+      <c r="C221" s="135" t="s">
+        <v>415</v>
+      </c>
+      <c r="D221" s="135" t="s">
+        <v>415</v>
+      </c>
+      <c r="E221" s="144"/>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" s="119" t="s">
-        <v>1859</v>
+        <v>1847</v>
       </c>
       <c r="B222" s="120" t="s">
-        <v>1860</v>
+        <v>1848</v>
       </c>
       <c r="C222" s="107" t="s">
         <v>93</v>
@@ -25172,10 +25592,10 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" s="119" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
       <c r="B223" s="120" t="s">
-        <v>1862</v>
+        <v>1850</v>
       </c>
       <c r="C223" s="107" t="s">
         <v>34</v>
@@ -25189,10 +25609,10 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" s="119" t="s">
-        <v>1863</v>
+        <v>1851</v>
       </c>
       <c r="B224" s="120" t="s">
-        <v>1864</v>
+        <v>1852</v>
       </c>
       <c r="C224" s="107" t="s">
         <v>93</v>
@@ -25204,10 +25624,10 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" s="119" t="s">
-        <v>1865</v>
+        <v>1853</v>
       </c>
       <c r="B225" s="120" t="s">
-        <v>1866</v>
+        <v>1854</v>
       </c>
       <c r="C225" s="107" t="s">
         <v>34</v>
@@ -25221,10 +25641,10 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" s="119" t="s">
-        <v>1867</v>
+        <v>1855</v>
       </c>
       <c r="B226" s="120" t="s">
-        <v>1868</v>
+        <v>1856</v>
       </c>
       <c r="C226" s="107" t="s">
         <v>93</v>
@@ -25236,10 +25656,10 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" s="119" t="s">
-        <v>1869</v>
+        <v>1857</v>
       </c>
       <c r="B227" s="120" t="s">
-        <v>1870</v>
+        <v>1858</v>
       </c>
       <c r="C227" s="107" t="s">
         <v>34</v>
@@ -25253,10 +25673,10 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" s="119" t="s">
-        <v>1871</v>
+        <v>1859</v>
       </c>
       <c r="B228" s="120" t="s">
-        <v>1872</v>
+        <v>1860</v>
       </c>
       <c r="C228" s="107" t="s">
         <v>93</v>
@@ -25268,10 +25688,10 @@
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" s="119" t="s">
-        <v>1873</v>
+        <v>1861</v>
       </c>
       <c r="B229" s="120" t="s">
-        <v>1874</v>
+        <v>1862</v>
       </c>
       <c r="C229" s="107" t="s">
         <v>34</v>
@@ -25285,10 +25705,10 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" s="119" t="s">
-        <v>1875</v>
+        <v>1863</v>
       </c>
       <c r="B230" s="120" t="s">
-        <v>1876</v>
+        <v>1864</v>
       </c>
       <c r="C230" s="107" t="s">
         <v>93</v>
@@ -25300,10 +25720,10 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" s="119" t="s">
-        <v>1877</v>
+        <v>1865</v>
       </c>
       <c r="B231" s="120" t="s">
-        <v>1878</v>
+        <v>1866</v>
       </c>
       <c r="C231" s="107" t="s">
         <v>34</v>
@@ -25317,10 +25737,10 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" s="119" t="s">
-        <v>1879</v>
+        <v>1867</v>
       </c>
       <c r="B232" s="120" t="s">
-        <v>1880</v>
+        <v>1868</v>
       </c>
       <c r="C232" s="107" t="s">
         <v>93</v>
@@ -25332,10 +25752,10 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" s="119" t="s">
-        <v>1881</v>
+        <v>1869</v>
       </c>
       <c r="B233" s="120" t="s">
-        <v>1882</v>
+        <v>1870</v>
       </c>
       <c r="C233" s="107" t="s">
         <v>34</v>
@@ -25349,10 +25769,10 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" s="119" t="s">
-        <v>1883</v>
+        <v>1871</v>
       </c>
       <c r="B234" s="120" t="s">
-        <v>1884</v>
+        <v>1872</v>
       </c>
       <c r="C234" s="107" t="s">
         <v>93</v>
@@ -25364,10 +25784,10 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" s="119" t="s">
-        <v>1885</v>
+        <v>1873</v>
       </c>
       <c r="B235" s="120" t="s">
-        <v>1886</v>
+        <v>1874</v>
       </c>
       <c r="C235" s="107" t="s">
         <v>34</v>
@@ -25381,10 +25801,10 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" s="119" t="s">
-        <v>1887</v>
+        <v>1875</v>
       </c>
       <c r="B236" s="120" t="s">
-        <v>1888</v>
+        <v>1876</v>
       </c>
       <c r="C236" s="107" t="s">
         <v>93</v>
@@ -25396,10 +25816,10 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" s="119" t="s">
-        <v>1889</v>
+        <v>1877</v>
       </c>
       <c r="B237" s="120" t="s">
-        <v>1890</v>
+        <v>1878</v>
       </c>
       <c r="C237" s="107" t="s">
         <v>34</v>
@@ -25412,101 +25832,107 @@
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A238" s="97" t="s">
-        <v>1891</v>
-      </c>
-      <c r="B238" s="108" t="s">
-        <v>1892</v>
-      </c>
-      <c r="C238" s="147" t="s">
-        <v>415</v>
-      </c>
-      <c r="D238" s="147" t="s">
-        <v>415</v>
+      <c r="A238" s="119" t="s">
+        <v>1879</v>
+      </c>
+      <c r="B238" s="120" t="s">
+        <v>1880</v>
+      </c>
+      <c r="C238" s="107" t="s">
+        <v>93</v>
+      </c>
+      <c r="D238" s="107" t="s">
+        <v>93</v>
       </c>
       <c r="E238" s="144"/>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A239" s="97" t="s">
-        <v>1893</v>
-      </c>
-      <c r="B239" s="108" t="s">
-        <v>1894</v>
-      </c>
-      <c r="C239" s="147" t="s">
-        <v>415</v>
-      </c>
-      <c r="D239" s="147" t="s">
-        <v>415</v>
-      </c>
-      <c r="E239" s="144"/>
+      <c r="A239" s="119" t="s">
+        <v>1881</v>
+      </c>
+      <c r="B239" s="120" t="s">
+        <v>1882</v>
+      </c>
+      <c r="C239" s="107" t="s">
+        <v>34</v>
+      </c>
+      <c r="D239" s="107" t="s">
+        <v>93</v>
+      </c>
+      <c r="E239" s="144" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A240" s="97" t="s">
-        <v>1895</v>
-      </c>
-      <c r="B240" s="108" t="s">
-        <v>1896</v>
-      </c>
-      <c r="C240" s="147" t="s">
-        <v>415</v>
-      </c>
-      <c r="D240" s="147" t="s">
-        <v>415</v>
+      <c r="A240" s="119" t="s">
+        <v>1883</v>
+      </c>
+      <c r="B240" s="120" t="s">
+        <v>1884</v>
+      </c>
+      <c r="C240" s="107" t="s">
+        <v>93</v>
+      </c>
+      <c r="D240" s="107" t="s">
+        <v>93</v>
       </c>
       <c r="E240" s="144"/>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A241" s="97" t="s">
-        <v>1897</v>
-      </c>
-      <c r="B241" s="108" t="s">
-        <v>1898</v>
-      </c>
-      <c r="C241" s="147" t="s">
-        <v>415</v>
-      </c>
-      <c r="D241" s="147" t="s">
-        <v>415</v>
-      </c>
-      <c r="E241" s="144"/>
+      <c r="A241" s="119" t="s">
+        <v>1885</v>
+      </c>
+      <c r="B241" s="120" t="s">
+        <v>1886</v>
+      </c>
+      <c r="C241" s="107" t="s">
+        <v>34</v>
+      </c>
+      <c r="D241" s="107" t="s">
+        <v>93</v>
+      </c>
+      <c r="E241" s="144" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A242" s="97" t="s">
-        <v>1899</v>
-      </c>
-      <c r="B242" s="108" t="s">
-        <v>1900</v>
-      </c>
-      <c r="C242" s="147" t="s">
-        <v>415</v>
-      </c>
-      <c r="D242" s="147" t="s">
-        <v>415</v>
+      <c r="A242" s="119" t="s">
+        <v>1887</v>
+      </c>
+      <c r="B242" s="120" t="s">
+        <v>1888</v>
+      </c>
+      <c r="C242" s="107" t="s">
+        <v>93</v>
+      </c>
+      <c r="D242" s="107" t="s">
+        <v>93</v>
       </c>
       <c r="E242" s="144"/>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A243" s="97" t="s">
-        <v>1901</v>
-      </c>
-      <c r="B243" s="108" t="s">
-        <v>1902</v>
-      </c>
-      <c r="C243" s="147" t="s">
-        <v>415</v>
-      </c>
-      <c r="D243" s="147" t="s">
-        <v>415</v>
-      </c>
-      <c r="E243" s="144"/>
+      <c r="A243" s="119" t="s">
+        <v>1889</v>
+      </c>
+      <c r="B243" s="120" t="s">
+        <v>1890</v>
+      </c>
+      <c r="C243" s="107" t="s">
+        <v>34</v>
+      </c>
+      <c r="D243" s="107" t="s">
+        <v>93</v>
+      </c>
+      <c r="E243" s="144" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" s="97" t="s">
-        <v>1903</v>
+        <v>1891</v>
       </c>
       <c r="B244" s="108" t="s">
-        <v>1904</v>
+        <v>1892</v>
       </c>
       <c r="C244" s="147" t="s">
         <v>415</v>
@@ -25518,10 +25944,10 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" s="97" t="s">
-        <v>1905</v>
+        <v>1893</v>
       </c>
       <c r="B245" s="108" t="s">
-        <v>1906</v>
+        <v>1894</v>
       </c>
       <c r="C245" s="147" t="s">
         <v>415</v>
@@ -25533,10 +25959,10 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" s="97" t="s">
-        <v>1907</v>
+        <v>1895</v>
       </c>
       <c r="B246" s="108" t="s">
-        <v>1908</v>
+        <v>1896</v>
       </c>
       <c r="C246" s="147" t="s">
         <v>415</v>
@@ -25548,10 +25974,10 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" s="97" t="s">
-        <v>1909</v>
+        <v>1897</v>
       </c>
       <c r="B247" s="108" t="s">
-        <v>1910</v>
+        <v>1898</v>
       </c>
       <c r="C247" s="147" t="s">
         <v>415</v>
@@ -25561,12 +25987,12 @@
       </c>
       <c r="E247" s="144"/>
     </row>
-    <row r="248" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" s="97" t="s">
-        <v>1911</v>
+        <v>1899</v>
       </c>
       <c r="B248" s="108" t="s">
-        <v>1912</v>
+        <v>1900</v>
       </c>
       <c r="C248" s="147" t="s">
         <v>415</v>
@@ -25575,6 +26001,96 @@
         <v>415</v>
       </c>
       <c r="E248" s="144"/>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A249" s="97" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B249" s="108" t="s">
+        <v>1902</v>
+      </c>
+      <c r="C249" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="D249" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="E249" s="144"/>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A250" s="97" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B250" s="108" t="s">
+        <v>1904</v>
+      </c>
+      <c r="C250" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="D250" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="E250" s="144"/>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A251" s="97" t="s">
+        <v>1905</v>
+      </c>
+      <c r="B251" s="108" t="s">
+        <v>1906</v>
+      </c>
+      <c r="C251" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="D251" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="E251" s="144"/>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A252" s="97" t="s">
+        <v>1907</v>
+      </c>
+      <c r="B252" s="108" t="s">
+        <v>1908</v>
+      </c>
+      <c r="C252" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="D252" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="E252" s="144"/>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A253" s="97" t="s">
+        <v>1909</v>
+      </c>
+      <c r="B253" s="108" t="s">
+        <v>1910</v>
+      </c>
+      <c r="C253" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="D253" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="E253" s="144"/>
+    </row>
+    <row r="254" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A254" s="97" t="s">
+        <v>1911</v>
+      </c>
+      <c r="B254" s="108" t="s">
+        <v>1912</v>
+      </c>
+      <c r="C254" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="D254" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="E254" s="144"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25584,11 +26100,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:IM248"/>
+  <dimension ref="A1:IM254"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A180" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A194" sqref="A194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -28605,10 +29121,10 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="77" t="s">
-        <v>2289</v>
+        <v>2994</v>
       </c>
       <c r="B192" s="78" t="s">
-        <v>2290</v>
+        <v>2948</v>
       </c>
       <c r="C192" s="78" t="s">
         <v>93</v>
@@ -28620,10 +29136,10 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" s="77" t="s">
-        <v>2291</v>
+        <v>2995</v>
       </c>
       <c r="B193" s="78" t="s">
-        <v>2292</v>
+        <v>2949</v>
       </c>
       <c r="C193" s="78" t="s">
         <v>34</v>
@@ -28636,63 +29152,63 @@
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A194" s="79" t="s">
+      <c r="A194" s="77" t="s">
+        <v>2289</v>
+      </c>
+      <c r="B194" s="78" t="s">
+        <v>2290</v>
+      </c>
+      <c r="C194" s="78" t="s">
+        <v>93</v>
+      </c>
+      <c r="D194" s="78" t="s">
+        <v>93</v>
+      </c>
+      <c r="E194" s="144"/>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A195" s="77" t="s">
+        <v>2291</v>
+      </c>
+      <c r="B195" s="78" t="s">
+        <v>2292</v>
+      </c>
+      <c r="C195" s="78" t="s">
+        <v>34</v>
+      </c>
+      <c r="D195" s="78" t="s">
+        <v>93</v>
+      </c>
+      <c r="E195" s="144" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A196" s="79" t="s">
         <v>2293</v>
       </c>
-      <c r="B194" s="80" t="s">
+      <c r="B196" s="80" t="s">
         <v>2294</v>
       </c>
-      <c r="C194" s="80" t="s">
-        <v>93</v>
-      </c>
-      <c r="D194" s="80" t="s">
-        <v>93</v>
-      </c>
-      <c r="E194" s="144"/>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A195" s="79" t="s">
+      <c r="C196" s="80" t="s">
+        <v>93</v>
+      </c>
+      <c r="D196" s="80" t="s">
+        <v>93</v>
+      </c>
+      <c r="E196" s="144"/>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A197" s="79" t="s">
         <v>2295</v>
       </c>
-      <c r="B195" s="80" t="s">
+      <c r="B197" s="80" t="s">
         <v>2296</v>
       </c>
-      <c r="C195" s="80" t="s">
+      <c r="C197" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="D195" s="80" t="s">
-        <v>93</v>
-      </c>
-      <c r="E195" s="144" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A196" s="81" t="s">
-        <v>2297</v>
-      </c>
-      <c r="B196" s="82" t="s">
-        <v>2298</v>
-      </c>
-      <c r="C196" s="148" t="s">
-        <v>93</v>
-      </c>
-      <c r="D196" s="148" t="s">
-        <v>93</v>
-      </c>
-      <c r="E196" s="144"/>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A197" s="81" t="s">
-        <v>2299</v>
-      </c>
-      <c r="B197" s="82" t="s">
-        <v>2300</v>
-      </c>
-      <c r="C197" s="148" t="s">
-        <v>34</v>
-      </c>
-      <c r="D197" s="148" t="s">
+      <c r="D197" s="80" t="s">
         <v>93</v>
       </c>
       <c r="E197" s="144" t="s">
@@ -28701,10 +29217,10 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" s="81" t="s">
-        <v>2301</v>
+        <v>2297</v>
       </c>
       <c r="B198" s="82" t="s">
-        <v>2302</v>
+        <v>2298</v>
       </c>
       <c r="C198" s="148" t="s">
         <v>93</v>
@@ -28716,10 +29232,10 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" s="81" t="s">
-        <v>2303</v>
+        <v>2299</v>
       </c>
       <c r="B199" s="82" t="s">
-        <v>2304</v>
+        <v>2300</v>
       </c>
       <c r="C199" s="148" t="s">
         <v>34</v>
@@ -28732,71 +29248,75 @@
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A200" s="83" t="s">
-        <v>2305</v>
-      </c>
-      <c r="B200" s="84" t="s">
-        <v>2306</v>
-      </c>
-      <c r="C200" s="132" t="s">
-        <v>415</v>
-      </c>
-      <c r="D200" s="132" t="s">
-        <v>415</v>
+      <c r="A200" s="81" t="s">
+        <v>2301</v>
+      </c>
+      <c r="B200" s="82" t="s">
+        <v>2302</v>
+      </c>
+      <c r="C200" s="148" t="s">
+        <v>93</v>
+      </c>
+      <c r="D200" s="148" t="s">
+        <v>93</v>
       </c>
       <c r="E200" s="144"/>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A201" s="83" t="s">
-        <v>2307</v>
-      </c>
-      <c r="B201" s="84" t="s">
-        <v>2308</v>
-      </c>
-      <c r="C201" s="132" t="s">
-        <v>415</v>
-      </c>
-      <c r="D201" s="132" t="s">
-        <v>415</v>
-      </c>
-      <c r="E201" s="144"/>
+      <c r="A201" s="81" t="s">
+        <v>2303</v>
+      </c>
+      <c r="B201" s="82" t="s">
+        <v>2304</v>
+      </c>
+      <c r="C201" s="148" t="s">
+        <v>34</v>
+      </c>
+      <c r="D201" s="148" t="s">
+        <v>93</v>
+      </c>
+      <c r="E201" s="144" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A202" s="83" t="s">
-        <v>2309</v>
-      </c>
-      <c r="B202" s="84" t="s">
-        <v>2310</v>
-      </c>
-      <c r="C202" s="132" t="s">
-        <v>415</v>
-      </c>
-      <c r="D202" s="132" t="s">
-        <v>415</v>
+      <c r="A202" s="81" t="s">
+        <v>2992</v>
+      </c>
+      <c r="B202" s="82" t="s">
+        <v>2950</v>
+      </c>
+      <c r="C202" s="148" t="s">
+        <v>93</v>
+      </c>
+      <c r="D202" s="148" t="s">
+        <v>93</v>
       </c>
       <c r="E202" s="144"/>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A203" s="83" t="s">
-        <v>2311</v>
-      </c>
-      <c r="B203" s="84" t="s">
-        <v>2312</v>
-      </c>
-      <c r="C203" s="132" t="s">
-        <v>415</v>
-      </c>
-      <c r="D203" s="132" t="s">
-        <v>415</v>
-      </c>
-      <c r="E203" s="144"/>
+      <c r="A203" s="81" t="s">
+        <v>2993</v>
+      </c>
+      <c r="B203" s="82" t="s">
+        <v>2951</v>
+      </c>
+      <c r="C203" s="148" t="s">
+        <v>34</v>
+      </c>
+      <c r="D203" s="148" t="s">
+        <v>93</v>
+      </c>
+      <c r="E203" s="144" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" s="83" t="s">
-        <v>2313</v>
+        <v>2305</v>
       </c>
       <c r="B204" s="84" t="s">
-        <v>2314</v>
+        <v>2306</v>
       </c>
       <c r="C204" s="132" t="s">
         <v>415</v>
@@ -28808,10 +29328,10 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" s="83" t="s">
-        <v>2315</v>
+        <v>2307</v>
       </c>
       <c r="B205" s="84" t="s">
-        <v>2316</v>
+        <v>2308</v>
       </c>
       <c r="C205" s="132" t="s">
         <v>415</v>
@@ -28823,10 +29343,10 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" s="83" t="s">
-        <v>2317</v>
+        <v>2309</v>
       </c>
       <c r="B206" s="84" t="s">
-        <v>2318</v>
+        <v>2310</v>
       </c>
       <c r="C206" s="132" t="s">
         <v>415</v>
@@ -28838,10 +29358,10 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" s="83" t="s">
-        <v>2319</v>
+        <v>2311</v>
       </c>
       <c r="B207" s="84" t="s">
-        <v>2320</v>
+        <v>2312</v>
       </c>
       <c r="C207" s="132" t="s">
         <v>415</v>
@@ -28853,10 +29373,10 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" s="83" t="s">
-        <v>2321</v>
+        <v>2313</v>
       </c>
       <c r="B208" s="84" t="s">
-        <v>2322</v>
+        <v>2314</v>
       </c>
       <c r="C208" s="132" t="s">
         <v>415</v>
@@ -28868,10 +29388,10 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" s="83" t="s">
-        <v>2323</v>
+        <v>2315</v>
       </c>
       <c r="B209" s="84" t="s">
-        <v>2324</v>
+        <v>2316</v>
       </c>
       <c r="C209" s="132" t="s">
         <v>415</v>
@@ -28883,10 +29403,10 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" s="83" t="s">
-        <v>2325</v>
+        <v>2317</v>
       </c>
       <c r="B210" s="84" t="s">
-        <v>2326</v>
+        <v>2318</v>
       </c>
       <c r="C210" s="132" t="s">
         <v>415</v>
@@ -28897,182 +29417,176 @@
       <c r="E210" s="144"/>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A211" s="85" t="s">
+      <c r="A211" s="83" t="s">
+        <v>2319</v>
+      </c>
+      <c r="B211" s="84" t="s">
+        <v>2320</v>
+      </c>
+      <c r="C211" s="132" t="s">
+        <v>415</v>
+      </c>
+      <c r="D211" s="132" t="s">
+        <v>415</v>
+      </c>
+      <c r="E211" s="144"/>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A212" s="83" t="s">
+        <v>2321</v>
+      </c>
+      <c r="B212" s="84" t="s">
+        <v>2322</v>
+      </c>
+      <c r="C212" s="132" t="s">
+        <v>415</v>
+      </c>
+      <c r="D212" s="132" t="s">
+        <v>415</v>
+      </c>
+      <c r="E212" s="144"/>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A213" s="83" t="s">
+        <v>2323</v>
+      </c>
+      <c r="B213" s="84" t="s">
+        <v>2324</v>
+      </c>
+      <c r="C213" s="132" t="s">
+        <v>415</v>
+      </c>
+      <c r="D213" s="132" t="s">
+        <v>415</v>
+      </c>
+      <c r="E213" s="144"/>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A214" s="83" t="s">
+        <v>2325</v>
+      </c>
+      <c r="B214" s="84" t="s">
+        <v>2326</v>
+      </c>
+      <c r="C214" s="132" t="s">
+        <v>415</v>
+      </c>
+      <c r="D214" s="132" t="s">
+        <v>415</v>
+      </c>
+      <c r="E214" s="144"/>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A215" s="85" t="s">
         <v>2327</v>
       </c>
-      <c r="B211" s="86" t="s">
+      <c r="B215" s="86" t="s">
         <v>2328</v>
       </c>
-      <c r="C211" s="133" t="s">
+      <c r="C215" s="133" t="s">
         <v>415</v>
       </c>
-      <c r="D211" s="133" t="s">
+      <c r="D215" s="133" t="s">
         <v>415</v>
       </c>
-      <c r="E211" s="144"/>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A212" s="85" t="s">
+      <c r="E215" s="144"/>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A216" s="85" t="s">
+        <v>2991</v>
+      </c>
+      <c r="B216" s="86" t="s">
+        <v>2952</v>
+      </c>
+      <c r="C216" s="133" t="s">
+        <v>415</v>
+      </c>
+      <c r="D216" s="133" t="s">
+        <v>415</v>
+      </c>
+      <c r="E216" s="144"/>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A217" s="85" t="s">
         <v>2329</v>
       </c>
-      <c r="B212" s="86" t="s">
+      <c r="B217" s="86" t="s">
         <v>2330</v>
       </c>
-      <c r="C212" s="133" t="s">
+      <c r="C217" s="133" t="s">
         <v>415</v>
       </c>
-      <c r="D212" s="133" t="s">
+      <c r="D217" s="133" t="s">
         <v>415</v>
       </c>
-      <c r="E212" s="144"/>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A213" s="87" t="s">
+      <c r="E217" s="144"/>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A218" s="87" t="s">
         <v>2331</v>
       </c>
-      <c r="B213" s="88" t="s">
+      <c r="B218" s="88" t="s">
         <v>2332</v>
       </c>
-      <c r="C213" s="134" t="s">
+      <c r="C218" s="134" t="s">
         <v>415</v>
       </c>
-      <c r="D213" s="134" t="s">
+      <c r="D218" s="134" t="s">
         <v>415</v>
       </c>
-      <c r="E213" s="144"/>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A214" s="89" t="s">
+      <c r="E218" s="144"/>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A219" s="89" t="s">
         <v>2333</v>
       </c>
-      <c r="B214" s="90" t="s">
+      <c r="B219" s="90" t="s">
         <v>2334</v>
       </c>
-      <c r="C214" s="135" t="s">
+      <c r="C219" s="135" t="s">
         <v>415</v>
       </c>
-      <c r="D214" s="135" t="s">
+      <c r="D219" s="135" t="s">
         <v>415</v>
       </c>
-      <c r="E214" s="144"/>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A215" s="89" t="s">
+      <c r="E219" s="144"/>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A220" s="89" t="s">
         <v>2335</v>
       </c>
-      <c r="B215" s="90" t="s">
+      <c r="B220" s="90" t="s">
         <v>2336</v>
       </c>
-      <c r="C215" s="135" t="s">
+      <c r="C220" s="135" t="s">
         <v>415</v>
       </c>
-      <c r="D215" s="135" t="s">
+      <c r="D220" s="135" t="s">
         <v>415</v>
       </c>
-      <c r="E215" s="144"/>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A216" s="96" t="s">
-        <v>2337</v>
-      </c>
-      <c r="B216" s="107" t="s">
-        <v>2338</v>
-      </c>
-      <c r="C216" s="107" t="s">
-        <v>93</v>
-      </c>
-      <c r="D216" s="107" t="s">
-        <v>93</v>
-      </c>
-      <c r="E216" s="144"/>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A217" s="96" t="s">
-        <v>2339</v>
-      </c>
-      <c r="B217" s="107" t="s">
-        <v>2340</v>
-      </c>
-      <c r="C217" s="107" t="s">
-        <v>34</v>
-      </c>
-      <c r="D217" s="107" t="s">
-        <v>93</v>
-      </c>
-      <c r="E217" s="144" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A218" s="96" t="s">
-        <v>2341</v>
-      </c>
-      <c r="B218" s="107" t="s">
-        <v>2342</v>
-      </c>
-      <c r="C218" s="107" t="s">
-        <v>93</v>
-      </c>
-      <c r="D218" s="107" t="s">
-        <v>93</v>
-      </c>
-      <c r="E218" s="144"/>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A219" s="96" t="s">
-        <v>2343</v>
-      </c>
-      <c r="B219" s="107" t="s">
-        <v>2344</v>
-      </c>
-      <c r="C219" s="107" t="s">
-        <v>34</v>
-      </c>
-      <c r="D219" s="107" t="s">
-        <v>93</v>
-      </c>
-      <c r="E219" s="144" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A220" s="96" t="s">
-        <v>2345</v>
-      </c>
-      <c r="B220" s="107" t="s">
-        <v>2346</v>
-      </c>
-      <c r="C220" s="107" t="s">
-        <v>93</v>
-      </c>
-      <c r="D220" s="107" t="s">
-        <v>93</v>
-      </c>
       <c r="E220" s="144"/>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A221" s="96" t="s">
-        <v>2347</v>
-      </c>
-      <c r="B221" s="107" t="s">
-        <v>2348</v>
-      </c>
-      <c r="C221" s="107" t="s">
-        <v>34</v>
-      </c>
-      <c r="D221" s="107" t="s">
-        <v>93</v>
-      </c>
-      <c r="E221" s="144" t="s">
-        <v>179</v>
-      </c>
+      <c r="A221" s="89" t="s">
+        <v>2990</v>
+      </c>
+      <c r="B221" s="90" t="s">
+        <v>2953</v>
+      </c>
+      <c r="C221" s="135" t="s">
+        <v>415</v>
+      </c>
+      <c r="D221" s="135" t="s">
+        <v>415</v>
+      </c>
+      <c r="E221" s="144"/>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" s="96" t="s">
-        <v>2349</v>
+        <v>2337</v>
       </c>
       <c r="B222" s="107" t="s">
-        <v>2350</v>
+        <v>2338</v>
       </c>
       <c r="C222" s="107" t="s">
         <v>93</v>
@@ -29084,10 +29598,10 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" s="96" t="s">
-        <v>2351</v>
+        <v>2339</v>
       </c>
       <c r="B223" s="107" t="s">
-        <v>2352</v>
+        <v>2340</v>
       </c>
       <c r="C223" s="107" t="s">
         <v>34</v>
@@ -29101,10 +29615,10 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" s="96" t="s">
-        <v>2353</v>
+        <v>2341</v>
       </c>
       <c r="B224" s="107" t="s">
-        <v>2354</v>
+        <v>2342</v>
       </c>
       <c r="C224" s="107" t="s">
         <v>93</v>
@@ -29116,10 +29630,10 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" s="96" t="s">
-        <v>2355</v>
+        <v>2343</v>
       </c>
       <c r="B225" s="107" t="s">
-        <v>2356</v>
+        <v>2344</v>
       </c>
       <c r="C225" s="107" t="s">
         <v>34</v>
@@ -29133,10 +29647,10 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" s="96" t="s">
-        <v>2357</v>
+        <v>2345</v>
       </c>
       <c r="B226" s="107" t="s">
-        <v>2358</v>
+        <v>2346</v>
       </c>
       <c r="C226" s="107" t="s">
         <v>93</v>
@@ -29148,10 +29662,10 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" s="96" t="s">
-        <v>2359</v>
+        <v>2347</v>
       </c>
       <c r="B227" s="107" t="s">
-        <v>2360</v>
+        <v>2348</v>
       </c>
       <c r="C227" s="107" t="s">
         <v>34</v>
@@ -29165,10 +29679,10 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" s="96" t="s">
-        <v>2361</v>
+        <v>2349</v>
       </c>
       <c r="B228" s="107" t="s">
-        <v>2362</v>
+        <v>2350</v>
       </c>
       <c r="C228" s="107" t="s">
         <v>93</v>
@@ -29180,10 +29694,10 @@
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" s="96" t="s">
-        <v>2363</v>
+        <v>2351</v>
       </c>
       <c r="B229" s="107" t="s">
-        <v>2364</v>
+        <v>2352</v>
       </c>
       <c r="C229" s="107" t="s">
         <v>34</v>
@@ -29197,10 +29711,10 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" s="96" t="s">
-        <v>2365</v>
+        <v>2353</v>
       </c>
       <c r="B230" s="107" t="s">
-        <v>2366</v>
+        <v>2354</v>
       </c>
       <c r="C230" s="107" t="s">
         <v>93</v>
@@ -29212,10 +29726,10 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" s="96" t="s">
-        <v>2367</v>
+        <v>2355</v>
       </c>
       <c r="B231" s="107" t="s">
-        <v>2368</v>
+        <v>2356</v>
       </c>
       <c r="C231" s="107" t="s">
         <v>34</v>
@@ -29229,10 +29743,10 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" s="96" t="s">
-        <v>2369</v>
+        <v>2357</v>
       </c>
       <c r="B232" s="107" t="s">
-        <v>2370</v>
+        <v>2358</v>
       </c>
       <c r="C232" s="107" t="s">
         <v>93</v>
@@ -29244,10 +29758,10 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" s="96" t="s">
-        <v>2371</v>
+        <v>2359</v>
       </c>
       <c r="B233" s="107" t="s">
-        <v>2372</v>
+        <v>2360</v>
       </c>
       <c r="C233" s="107" t="s">
         <v>34</v>
@@ -29261,10 +29775,10 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" s="96" t="s">
-        <v>2373</v>
+        <v>2361</v>
       </c>
       <c r="B234" s="107" t="s">
-        <v>2374</v>
+        <v>2362</v>
       </c>
       <c r="C234" s="107" t="s">
         <v>93</v>
@@ -29276,10 +29790,10 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" s="96" t="s">
-        <v>2375</v>
+        <v>2363</v>
       </c>
       <c r="B235" s="107" t="s">
-        <v>2376</v>
+        <v>2364</v>
       </c>
       <c r="C235" s="107" t="s">
         <v>34</v>
@@ -29293,10 +29807,10 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" s="96" t="s">
-        <v>2377</v>
+        <v>2365</v>
       </c>
       <c r="B236" s="107" t="s">
-        <v>2378</v>
+        <v>2366</v>
       </c>
       <c r="C236" s="107" t="s">
         <v>93</v>
@@ -29308,10 +29822,10 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" s="96" t="s">
-        <v>2379</v>
+        <v>2367</v>
       </c>
       <c r="B237" s="107" t="s">
-        <v>2380</v>
+        <v>2368</v>
       </c>
       <c r="C237" s="107" t="s">
         <v>34</v>
@@ -29324,101 +29838,107 @@
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A238" s="97" t="s">
-        <v>2381</v>
-      </c>
-      <c r="B238" s="108" t="s">
-        <v>2382</v>
-      </c>
-      <c r="C238" s="147" t="s">
-        <v>415</v>
-      </c>
-      <c r="D238" s="147" t="s">
-        <v>415</v>
+      <c r="A238" s="96" t="s">
+        <v>2369</v>
+      </c>
+      <c r="B238" s="107" t="s">
+        <v>2370</v>
+      </c>
+      <c r="C238" s="107" t="s">
+        <v>93</v>
+      </c>
+      <c r="D238" s="107" t="s">
+        <v>93</v>
       </c>
       <c r="E238" s="144"/>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A239" s="97" t="s">
-        <v>2383</v>
-      </c>
-      <c r="B239" s="108" t="s">
-        <v>2384</v>
-      </c>
-      <c r="C239" s="147" t="s">
-        <v>415</v>
-      </c>
-      <c r="D239" s="147" t="s">
-        <v>415</v>
-      </c>
-      <c r="E239" s="144"/>
+      <c r="A239" s="96" t="s">
+        <v>2371</v>
+      </c>
+      <c r="B239" s="107" t="s">
+        <v>2372</v>
+      </c>
+      <c r="C239" s="107" t="s">
+        <v>34</v>
+      </c>
+      <c r="D239" s="107" t="s">
+        <v>93</v>
+      </c>
+      <c r="E239" s="144" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A240" s="97" t="s">
-        <v>2385</v>
-      </c>
-      <c r="B240" s="108" t="s">
-        <v>2386</v>
-      </c>
-      <c r="C240" s="147" t="s">
-        <v>415</v>
-      </c>
-      <c r="D240" s="147" t="s">
-        <v>415</v>
+      <c r="A240" s="96" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B240" s="107" t="s">
+        <v>2374</v>
+      </c>
+      <c r="C240" s="107" t="s">
+        <v>93</v>
+      </c>
+      <c r="D240" s="107" t="s">
+        <v>93</v>
       </c>
       <c r="E240" s="144"/>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A241" s="97" t="s">
-        <v>2387</v>
-      </c>
-      <c r="B241" s="108" t="s">
-        <v>2388</v>
-      </c>
-      <c r="C241" s="147" t="s">
-        <v>415</v>
-      </c>
-      <c r="D241" s="147" t="s">
-        <v>415</v>
-      </c>
-      <c r="E241" s="144"/>
+      <c r="A241" s="96" t="s">
+        <v>2375</v>
+      </c>
+      <c r="B241" s="107" t="s">
+        <v>2376</v>
+      </c>
+      <c r="C241" s="107" t="s">
+        <v>34</v>
+      </c>
+      <c r="D241" s="107" t="s">
+        <v>93</v>
+      </c>
+      <c r="E241" s="144" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A242" s="97" t="s">
-        <v>2389</v>
-      </c>
-      <c r="B242" s="108" t="s">
-        <v>2390</v>
-      </c>
-      <c r="C242" s="147" t="s">
-        <v>415</v>
-      </c>
-      <c r="D242" s="147" t="s">
-        <v>415</v>
+      <c r="A242" s="96" t="s">
+        <v>2377</v>
+      </c>
+      <c r="B242" s="107" t="s">
+        <v>2378</v>
+      </c>
+      <c r="C242" s="107" t="s">
+        <v>93</v>
+      </c>
+      <c r="D242" s="107" t="s">
+        <v>93</v>
       </c>
       <c r="E242" s="144"/>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A243" s="97" t="s">
-        <v>2391</v>
-      </c>
-      <c r="B243" s="108" t="s">
-        <v>2392</v>
-      </c>
-      <c r="C243" s="147" t="s">
-        <v>415</v>
-      </c>
-      <c r="D243" s="147" t="s">
-        <v>415</v>
-      </c>
-      <c r="E243" s="144"/>
+      <c r="A243" s="96" t="s">
+        <v>2379</v>
+      </c>
+      <c r="B243" s="107" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C243" s="107" t="s">
+        <v>34</v>
+      </c>
+      <c r="D243" s="107" t="s">
+        <v>93</v>
+      </c>
+      <c r="E243" s="144" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" s="97" t="s">
-        <v>2393</v>
+        <v>2381</v>
       </c>
       <c r="B244" s="108" t="s">
-        <v>2394</v>
+        <v>2382</v>
       </c>
       <c r="C244" s="147" t="s">
         <v>415</v>
@@ -29430,10 +29950,10 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" s="97" t="s">
-        <v>2395</v>
+        <v>2383</v>
       </c>
       <c r="B245" s="108" t="s">
-        <v>2396</v>
+        <v>2384</v>
       </c>
       <c r="C245" s="147" t="s">
         <v>415</v>
@@ -29445,10 +29965,10 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" s="97" t="s">
-        <v>2397</v>
+        <v>2385</v>
       </c>
       <c r="B246" s="108" t="s">
-        <v>2398</v>
+        <v>2386</v>
       </c>
       <c r="C246" s="147" t="s">
         <v>415</v>
@@ -29460,10 +29980,10 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" s="97" t="s">
-        <v>2399</v>
+        <v>2387</v>
       </c>
       <c r="B247" s="108" t="s">
-        <v>2400</v>
+        <v>2388</v>
       </c>
       <c r="C247" s="147" t="s">
         <v>415</v>
@@ -29475,10 +29995,10 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" s="97" t="s">
-        <v>2401</v>
+        <v>2389</v>
       </c>
       <c r="B248" s="108" t="s">
-        <v>2402</v>
+        <v>2390</v>
       </c>
       <c r="C248" s="147" t="s">
         <v>415</v>
@@ -29487,6 +30007,96 @@
         <v>415</v>
       </c>
       <c r="E248" s="144"/>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A249" s="97" t="s">
+        <v>2391</v>
+      </c>
+      <c r="B249" s="108" t="s">
+        <v>2392</v>
+      </c>
+      <c r="C249" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="D249" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="E249" s="144"/>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A250" s="97" t="s">
+        <v>2393</v>
+      </c>
+      <c r="B250" s="108" t="s">
+        <v>2394</v>
+      </c>
+      <c r="C250" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="D250" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="E250" s="144"/>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A251" s="97" t="s">
+        <v>2395</v>
+      </c>
+      <c r="B251" s="108" t="s">
+        <v>2396</v>
+      </c>
+      <c r="C251" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="D251" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="E251" s="144"/>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A252" s="97" t="s">
+        <v>2397</v>
+      </c>
+      <c r="B252" s="108" t="s">
+        <v>2398</v>
+      </c>
+      <c r="C252" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="D252" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="E252" s="144"/>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A253" s="97" t="s">
+        <v>2399</v>
+      </c>
+      <c r="B253" s="108" t="s">
+        <v>2400</v>
+      </c>
+      <c r="C253" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="D253" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="E253" s="144"/>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A254" s="97" t="s">
+        <v>2401</v>
+      </c>
+      <c r="B254" s="108" t="s">
+        <v>2402</v>
+      </c>
+      <c r="C254" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="D254" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="E254" s="144"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29496,11 +30106,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:IL246"/>
+  <dimension ref="A1:IL252"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A212" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A192" sqref="A192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -32495,10 +33105,10 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" s="77" t="s">
-        <v>2777</v>
+        <v>2964</v>
       </c>
       <c r="B190" s="78" t="s">
-        <v>2778</v>
+        <v>2954</v>
       </c>
       <c r="C190" s="78" t="s">
         <v>93</v>
@@ -32510,10 +33120,10 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" s="77" t="s">
-        <v>2779</v>
+        <v>2965</v>
       </c>
       <c r="B191" s="78" t="s">
-        <v>2780</v>
+        <v>2955</v>
       </c>
       <c r="C191" s="78" t="s">
         <v>34</v>
@@ -32526,63 +33136,63 @@
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A192" s="79" t="s">
+      <c r="A192" s="77" t="s">
+        <v>2777</v>
+      </c>
+      <c r="B192" s="78" t="s">
+        <v>2778</v>
+      </c>
+      <c r="C192" s="78" t="s">
+        <v>93</v>
+      </c>
+      <c r="D192" s="78" t="s">
+        <v>93</v>
+      </c>
+      <c r="E192" s="144"/>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A193" s="77" t="s">
+        <v>2779</v>
+      </c>
+      <c r="B193" s="78" t="s">
+        <v>2780</v>
+      </c>
+      <c r="C193" s="78" t="s">
+        <v>34</v>
+      </c>
+      <c r="D193" s="78" t="s">
+        <v>93</v>
+      </c>
+      <c r="E193" s="144" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A194" s="79" t="s">
         <v>2781</v>
       </c>
-      <c r="B192" s="80" t="s">
+      <c r="B194" s="80" t="s">
         <v>2782</v>
       </c>
-      <c r="C192" s="80" t="s">
-        <v>93</v>
-      </c>
-      <c r="D192" s="80" t="s">
-        <v>93</v>
-      </c>
-      <c r="E192" s="144"/>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A193" s="79" t="s">
+      <c r="C194" s="80" t="s">
+        <v>93</v>
+      </c>
+      <c r="D194" s="80" t="s">
+        <v>93</v>
+      </c>
+      <c r="E194" s="144"/>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A195" s="79" t="s">
         <v>2783</v>
       </c>
-      <c r="B193" s="80" t="s">
+      <c r="B195" s="80" t="s">
         <v>2784</v>
       </c>
-      <c r="C193" s="80" t="s">
+      <c r="C195" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="D193" s="80" t="s">
-        <v>93</v>
-      </c>
-      <c r="E193" s="144" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A194" s="81" t="s">
-        <v>2785</v>
-      </c>
-      <c r="B194" s="82" t="s">
-        <v>2786</v>
-      </c>
-      <c r="C194" s="148" t="s">
-        <v>93</v>
-      </c>
-      <c r="D194" s="148" t="s">
-        <v>93</v>
-      </c>
-      <c r="E194" s="144"/>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A195" s="81" t="s">
-        <v>2787</v>
-      </c>
-      <c r="B195" s="82" t="s">
-        <v>2788</v>
-      </c>
-      <c r="C195" s="148" t="s">
-        <v>34</v>
-      </c>
-      <c r="D195" s="148" t="s">
+      <c r="D195" s="80" t="s">
         <v>93</v>
       </c>
       <c r="E195" s="144" t="s">
@@ -32591,10 +33201,10 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" s="81" t="s">
-        <v>2789</v>
+        <v>2785</v>
       </c>
       <c r="B196" s="82" t="s">
-        <v>2790</v>
+        <v>2786</v>
       </c>
       <c r="C196" s="148" t="s">
         <v>93</v>
@@ -32606,10 +33216,10 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" s="81" t="s">
-        <v>2791</v>
+        <v>2787</v>
       </c>
       <c r="B197" s="82" t="s">
-        <v>2792</v>
+        <v>2788</v>
       </c>
       <c r="C197" s="148" t="s">
         <v>34</v>
@@ -32622,71 +33232,75 @@
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A198" s="83" t="s">
-        <v>2793</v>
-      </c>
-      <c r="B198" s="84" t="s">
-        <v>2794</v>
-      </c>
-      <c r="C198" s="132" t="s">
-        <v>415</v>
-      </c>
-      <c r="D198" s="132" t="s">
-        <v>415</v>
+      <c r="A198" s="81" t="s">
+        <v>2789</v>
+      </c>
+      <c r="B198" s="82" t="s">
+        <v>2790</v>
+      </c>
+      <c r="C198" s="148" t="s">
+        <v>93</v>
+      </c>
+      <c r="D198" s="148" t="s">
+        <v>93</v>
       </c>
       <c r="E198" s="144"/>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A199" s="83" t="s">
-        <v>2795</v>
-      </c>
-      <c r="B199" s="84" t="s">
-        <v>2796</v>
-      </c>
-      <c r="C199" s="132" t="s">
-        <v>415</v>
-      </c>
-      <c r="D199" s="132" t="s">
-        <v>415</v>
-      </c>
-      <c r="E199" s="144"/>
+      <c r="A199" s="81" t="s">
+        <v>2791</v>
+      </c>
+      <c r="B199" s="82" t="s">
+        <v>2792</v>
+      </c>
+      <c r="C199" s="148" t="s">
+        <v>34</v>
+      </c>
+      <c r="D199" s="148" t="s">
+        <v>93</v>
+      </c>
+      <c r="E199" s="144" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A200" s="83" t="s">
-        <v>2797</v>
-      </c>
-      <c r="B200" s="84" t="s">
-        <v>2798</v>
-      </c>
-      <c r="C200" s="132" t="s">
-        <v>415</v>
-      </c>
-      <c r="D200" s="132" t="s">
-        <v>415</v>
+      <c r="A200" s="81" t="s">
+        <v>2962</v>
+      </c>
+      <c r="B200" s="82" t="s">
+        <v>2956</v>
+      </c>
+      <c r="C200" s="148" t="s">
+        <v>93</v>
+      </c>
+      <c r="D200" s="148" t="s">
+        <v>93</v>
       </c>
       <c r="E200" s="144"/>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A201" s="83" t="s">
-        <v>2799</v>
-      </c>
-      <c r="B201" s="84" t="s">
-        <v>2800</v>
-      </c>
-      <c r="C201" s="132" t="s">
-        <v>415</v>
-      </c>
-      <c r="D201" s="132" t="s">
-        <v>415</v>
-      </c>
-      <c r="E201" s="144"/>
+      <c r="A201" s="81" t="s">
+        <v>2963</v>
+      </c>
+      <c r="B201" s="82" t="s">
+        <v>2957</v>
+      </c>
+      <c r="C201" s="148" t="s">
+        <v>34</v>
+      </c>
+      <c r="D201" s="148" t="s">
+        <v>93</v>
+      </c>
+      <c r="E201" s="144" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" s="83" t="s">
-        <v>2801</v>
+        <v>2793</v>
       </c>
       <c r="B202" s="84" t="s">
-        <v>2802</v>
+        <v>2794</v>
       </c>
       <c r="C202" s="132" t="s">
         <v>415</v>
@@ -32698,10 +33312,10 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" s="83" t="s">
-        <v>2803</v>
+        <v>2795</v>
       </c>
       <c r="B203" s="84" t="s">
-        <v>2804</v>
+        <v>2796</v>
       </c>
       <c r="C203" s="132" t="s">
         <v>415</v>
@@ -32713,10 +33327,10 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" s="83" t="s">
-        <v>2805</v>
+        <v>2797</v>
       </c>
       <c r="B204" s="84" t="s">
-        <v>2806</v>
+        <v>2798</v>
       </c>
       <c r="C204" s="132" t="s">
         <v>415</v>
@@ -32728,10 +33342,10 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" s="83" t="s">
-        <v>2807</v>
+        <v>2799</v>
       </c>
       <c r="B205" s="84" t="s">
-        <v>2808</v>
+        <v>2800</v>
       </c>
       <c r="C205" s="132" t="s">
         <v>415</v>
@@ -32743,10 +33357,10 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" s="83" t="s">
-        <v>2809</v>
+        <v>2801</v>
       </c>
       <c r="B206" s="84" t="s">
-        <v>2810</v>
+        <v>2802</v>
       </c>
       <c r="C206" s="132" t="s">
         <v>415</v>
@@ -32758,10 +33372,10 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" s="83" t="s">
-        <v>2811</v>
+        <v>2803</v>
       </c>
       <c r="B207" s="84" t="s">
-        <v>2812</v>
+        <v>2804</v>
       </c>
       <c r="C207" s="132" t="s">
         <v>415</v>
@@ -32773,10 +33387,10 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" s="83" t="s">
-        <v>2813</v>
+        <v>2805</v>
       </c>
       <c r="B208" s="84" t="s">
-        <v>2814</v>
+        <v>2806</v>
       </c>
       <c r="C208" s="132" t="s">
         <v>415</v>
@@ -32787,182 +33401,176 @@
       <c r="E208" s="144"/>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A209" s="85" t="s">
+      <c r="A209" s="83" t="s">
+        <v>2807</v>
+      </c>
+      <c r="B209" s="84" t="s">
+        <v>2808</v>
+      </c>
+      <c r="C209" s="132" t="s">
+        <v>415</v>
+      </c>
+      <c r="D209" s="132" t="s">
+        <v>415</v>
+      </c>
+      <c r="E209" s="144"/>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A210" s="83" t="s">
+        <v>2809</v>
+      </c>
+      <c r="B210" s="84" t="s">
+        <v>2810</v>
+      </c>
+      <c r="C210" s="132" t="s">
+        <v>415</v>
+      </c>
+      <c r="D210" s="132" t="s">
+        <v>415</v>
+      </c>
+      <c r="E210" s="144"/>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A211" s="83" t="s">
+        <v>2811</v>
+      </c>
+      <c r="B211" s="84" t="s">
+        <v>2812</v>
+      </c>
+      <c r="C211" s="132" t="s">
+        <v>415</v>
+      </c>
+      <c r="D211" s="132" t="s">
+        <v>415</v>
+      </c>
+      <c r="E211" s="144"/>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A212" s="83" t="s">
+        <v>2813</v>
+      </c>
+      <c r="B212" s="84" t="s">
+        <v>2814</v>
+      </c>
+      <c r="C212" s="132" t="s">
+        <v>415</v>
+      </c>
+      <c r="D212" s="132" t="s">
+        <v>415</v>
+      </c>
+      <c r="E212" s="144"/>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A213" s="85" t="s">
         <v>2815</v>
       </c>
-      <c r="B209" s="86" t="s">
+      <c r="B213" s="86" t="s">
         <v>2816</v>
       </c>
-      <c r="C209" s="133" t="s">
+      <c r="C213" s="133" t="s">
         <v>415</v>
       </c>
-      <c r="D209" s="133" t="s">
+      <c r="D213" s="133" t="s">
         <v>415</v>
       </c>
-      <c r="E209" s="144"/>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A210" s="85" t="s">
+      <c r="E213" s="144"/>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A214" s="85" t="s">
+        <v>2960</v>
+      </c>
+      <c r="B214" s="86" t="s">
+        <v>2958</v>
+      </c>
+      <c r="C214" s="133" t="s">
+        <v>415</v>
+      </c>
+      <c r="D214" s="133" t="s">
+        <v>415</v>
+      </c>
+      <c r="E214" s="144"/>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A215" s="85" t="s">
         <v>2817</v>
       </c>
-      <c r="B210" s="86" t="s">
+      <c r="B215" s="86" t="s">
         <v>2818</v>
       </c>
-      <c r="C210" s="133" t="s">
+      <c r="C215" s="133" t="s">
         <v>415</v>
       </c>
-      <c r="D210" s="133" t="s">
+      <c r="D215" s="133" t="s">
         <v>415</v>
       </c>
-      <c r="E210" s="144"/>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A211" s="87" t="s">
+      <c r="E215" s="144"/>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A216" s="87" t="s">
         <v>2819</v>
       </c>
-      <c r="B211" s="88" t="s">
+      <c r="B216" s="88" t="s">
         <v>2820</v>
       </c>
-      <c r="C211" s="134" t="s">
+      <c r="C216" s="134" t="s">
         <v>415</v>
       </c>
-      <c r="D211" s="134" t="s">
+      <c r="D216" s="134" t="s">
         <v>415</v>
       </c>
-      <c r="E211" s="144"/>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A212" s="89" t="s">
+      <c r="E216" s="144"/>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A217" s="89" t="s">
         <v>2821</v>
       </c>
-      <c r="B212" s="90" t="s">
+      <c r="B217" s="90" t="s">
         <v>2822</v>
       </c>
-      <c r="C212" s="135" t="s">
+      <c r="C217" s="135" t="s">
         <v>415</v>
       </c>
-      <c r="D212" s="135" t="s">
+      <c r="D217" s="135" t="s">
         <v>415</v>
       </c>
-      <c r="E212" s="144"/>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A213" s="89" t="s">
+      <c r="E217" s="144"/>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A218" s="89" t="s">
         <v>2823</v>
       </c>
-      <c r="B213" s="90" t="s">
+      <c r="B218" s="90" t="s">
         <v>2824</v>
       </c>
-      <c r="C213" s="135" t="s">
+      <c r="C218" s="135" t="s">
         <v>415</v>
       </c>
-      <c r="D213" s="135" t="s">
+      <c r="D218" s="135" t="s">
         <v>415</v>
       </c>
-      <c r="E213" s="144"/>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A214" s="123" t="s">
-        <v>2825</v>
-      </c>
-      <c r="B214" s="124" t="s">
-        <v>2826</v>
-      </c>
-      <c r="C214" s="107" t="s">
-        <v>93</v>
-      </c>
-      <c r="D214" s="107" t="s">
-        <v>93</v>
-      </c>
-      <c r="E214" s="144"/>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A215" s="123" t="s">
-        <v>2827</v>
-      </c>
-      <c r="B215" s="124" t="s">
-        <v>2828</v>
-      </c>
-      <c r="C215" s="107" t="s">
-        <v>34</v>
-      </c>
-      <c r="D215" s="107" t="s">
-        <v>93</v>
-      </c>
-      <c r="E215" s="144" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A216" s="123" t="s">
-        <v>2829</v>
-      </c>
-      <c r="B216" s="124" t="s">
-        <v>2830</v>
-      </c>
-      <c r="C216" s="107" t="s">
-        <v>93</v>
-      </c>
-      <c r="D216" s="107" t="s">
-        <v>93</v>
-      </c>
-      <c r="E216" s="144"/>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A217" s="123" t="s">
-        <v>2831</v>
-      </c>
-      <c r="B217" s="124" t="s">
-        <v>2832</v>
-      </c>
-      <c r="C217" s="107" t="s">
-        <v>34</v>
-      </c>
-      <c r="D217" s="107" t="s">
-        <v>93</v>
-      </c>
-      <c r="E217" s="144" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A218" s="123" t="s">
-        <v>2833</v>
-      </c>
-      <c r="B218" s="124" t="s">
-        <v>2834</v>
-      </c>
-      <c r="C218" s="107" t="s">
-        <v>93</v>
-      </c>
-      <c r="D218" s="107" t="s">
-        <v>93</v>
-      </c>
       <c r="E218" s="144"/>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A219" s="123" t="s">
-        <v>2835</v>
-      </c>
-      <c r="B219" s="124" t="s">
-        <v>2836</v>
-      </c>
-      <c r="C219" s="107" t="s">
-        <v>34</v>
-      </c>
-      <c r="D219" s="107" t="s">
-        <v>93</v>
-      </c>
-      <c r="E219" s="144" t="s">
-        <v>179</v>
-      </c>
+      <c r="A219" s="89" t="s">
+        <v>2961</v>
+      </c>
+      <c r="B219" s="90" t="s">
+        <v>2959</v>
+      </c>
+      <c r="C219" s="135" t="s">
+        <v>415</v>
+      </c>
+      <c r="D219" s="135" t="s">
+        <v>415</v>
+      </c>
+      <c r="E219" s="144"/>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" s="123" t="s">
-        <v>2837</v>
+        <v>2825</v>
       </c>
       <c r="B220" s="124" t="s">
-        <v>2838</v>
+        <v>2826</v>
       </c>
       <c r="C220" s="107" t="s">
         <v>93</v>
@@ -32974,10 +33582,10 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" s="123" t="s">
-        <v>2839</v>
+        <v>2827</v>
       </c>
       <c r="B221" s="124" t="s">
-        <v>2840</v>
+        <v>2828</v>
       </c>
       <c r="C221" s="107" t="s">
         <v>34</v>
@@ -32991,10 +33599,10 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" s="123" t="s">
-        <v>2841</v>
+        <v>2829</v>
       </c>
       <c r="B222" s="124" t="s">
-        <v>2842</v>
+        <v>2830</v>
       </c>
       <c r="C222" s="107" t="s">
         <v>93</v>
@@ -33006,10 +33614,10 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" s="123" t="s">
-        <v>2843</v>
+        <v>2831</v>
       </c>
       <c r="B223" s="124" t="s">
-        <v>2844</v>
+        <v>2832</v>
       </c>
       <c r="C223" s="107" t="s">
         <v>34</v>
@@ -33023,10 +33631,10 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" s="123" t="s">
-        <v>2845</v>
+        <v>2833</v>
       </c>
       <c r="B224" s="124" t="s">
-        <v>2846</v>
+        <v>2834</v>
       </c>
       <c r="C224" s="107" t="s">
         <v>93</v>
@@ -33038,10 +33646,10 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" s="123" t="s">
-        <v>2847</v>
+        <v>2835</v>
       </c>
       <c r="B225" s="124" t="s">
-        <v>2848</v>
+        <v>2836</v>
       </c>
       <c r="C225" s="107" t="s">
         <v>34</v>
@@ -33055,10 +33663,10 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" s="123" t="s">
-        <v>2849</v>
+        <v>2837</v>
       </c>
       <c r="B226" s="124" t="s">
-        <v>2850</v>
+        <v>2838</v>
       </c>
       <c r="C226" s="107" t="s">
         <v>93</v>
@@ -33070,10 +33678,10 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" s="123" t="s">
-        <v>2851</v>
+        <v>2839</v>
       </c>
       <c r="B227" s="124" t="s">
-        <v>2852</v>
+        <v>2840</v>
       </c>
       <c r="C227" s="107" t="s">
         <v>34</v>
@@ -33087,10 +33695,10 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" s="123" t="s">
-        <v>2853</v>
+        <v>2841</v>
       </c>
       <c r="B228" s="124" t="s">
-        <v>2854</v>
+        <v>2842</v>
       </c>
       <c r="C228" s="107" t="s">
         <v>93</v>
@@ -33102,10 +33710,10 @@
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" s="123" t="s">
-        <v>2855</v>
+        <v>2843</v>
       </c>
       <c r="B229" s="124" t="s">
-        <v>2856</v>
+        <v>2844</v>
       </c>
       <c r="C229" s="107" t="s">
         <v>34</v>
@@ -33119,10 +33727,10 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" s="123" t="s">
-        <v>2857</v>
+        <v>2845</v>
       </c>
       <c r="B230" s="124" t="s">
-        <v>2858</v>
+        <v>2846</v>
       </c>
       <c r="C230" s="107" t="s">
         <v>93</v>
@@ -33134,10 +33742,10 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" s="123" t="s">
-        <v>2859</v>
+        <v>2847</v>
       </c>
       <c r="B231" s="124" t="s">
-        <v>2860</v>
+        <v>2848</v>
       </c>
       <c r="C231" s="107" t="s">
         <v>34</v>
@@ -33151,10 +33759,10 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" s="123" t="s">
-        <v>2861</v>
+        <v>2849</v>
       </c>
       <c r="B232" s="124" t="s">
-        <v>2862</v>
+        <v>2850</v>
       </c>
       <c r="C232" s="107" t="s">
         <v>93</v>
@@ -33166,10 +33774,10 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" s="123" t="s">
-        <v>2863</v>
+        <v>2851</v>
       </c>
       <c r="B233" s="124" t="s">
-        <v>2864</v>
+        <v>2852</v>
       </c>
       <c r="C233" s="107" t="s">
         <v>34</v>
@@ -33183,10 +33791,10 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" s="123" t="s">
-        <v>2865</v>
+        <v>2853</v>
       </c>
       <c r="B234" s="124" t="s">
-        <v>2866</v>
+        <v>2854</v>
       </c>
       <c r="C234" s="107" t="s">
         <v>93</v>
@@ -33198,10 +33806,10 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" s="123" t="s">
-        <v>2867</v>
+        <v>2855</v>
       </c>
       <c r="B235" s="124" t="s">
-        <v>2868</v>
+        <v>2856</v>
       </c>
       <c r="C235" s="107" t="s">
         <v>34</v>
@@ -33214,101 +33822,107 @@
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A236" s="97" t="s">
-        <v>2869</v>
-      </c>
-      <c r="B236" s="108" t="s">
-        <v>2870</v>
-      </c>
-      <c r="C236" s="147" t="s">
-        <v>415</v>
-      </c>
-      <c r="D236" s="147" t="s">
-        <v>415</v>
+      <c r="A236" s="123" t="s">
+        <v>2857</v>
+      </c>
+      <c r="B236" s="124" t="s">
+        <v>2858</v>
+      </c>
+      <c r="C236" s="107" t="s">
+        <v>93</v>
+      </c>
+      <c r="D236" s="107" t="s">
+        <v>93</v>
       </c>
       <c r="E236" s="144"/>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A237" s="97" t="s">
-        <v>2871</v>
-      </c>
-      <c r="B237" s="108" t="s">
-        <v>2872</v>
-      </c>
-      <c r="C237" s="147" t="s">
-        <v>415</v>
-      </c>
-      <c r="D237" s="147" t="s">
-        <v>415</v>
-      </c>
-      <c r="E237" s="144"/>
+      <c r="A237" s="123" t="s">
+        <v>2859</v>
+      </c>
+      <c r="B237" s="124" t="s">
+        <v>2860</v>
+      </c>
+      <c r="C237" s="107" t="s">
+        <v>34</v>
+      </c>
+      <c r="D237" s="107" t="s">
+        <v>93</v>
+      </c>
+      <c r="E237" s="144" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A238" s="97" t="s">
-        <v>2873</v>
-      </c>
-      <c r="B238" s="108" t="s">
-        <v>2874</v>
-      </c>
-      <c r="C238" s="147" t="s">
-        <v>415</v>
-      </c>
-      <c r="D238" s="147" t="s">
-        <v>415</v>
+      <c r="A238" s="123" t="s">
+        <v>2861</v>
+      </c>
+      <c r="B238" s="124" t="s">
+        <v>2862</v>
+      </c>
+      <c r="C238" s="107" t="s">
+        <v>93</v>
+      </c>
+      <c r="D238" s="107" t="s">
+        <v>93</v>
       </c>
       <c r="E238" s="144"/>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A239" s="97" t="s">
-        <v>2875</v>
-      </c>
-      <c r="B239" s="108" t="s">
-        <v>2876</v>
-      </c>
-      <c r="C239" s="147" t="s">
-        <v>415</v>
-      </c>
-      <c r="D239" s="147" t="s">
-        <v>415</v>
-      </c>
-      <c r="E239" s="144"/>
+      <c r="A239" s="123" t="s">
+        <v>2863</v>
+      </c>
+      <c r="B239" s="124" t="s">
+        <v>2864</v>
+      </c>
+      <c r="C239" s="107" t="s">
+        <v>34</v>
+      </c>
+      <c r="D239" s="107" t="s">
+        <v>93</v>
+      </c>
+      <c r="E239" s="144" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A240" s="97" t="s">
-        <v>2877</v>
-      </c>
-      <c r="B240" s="108" t="s">
-        <v>2878</v>
-      </c>
-      <c r="C240" s="147" t="s">
-        <v>415</v>
-      </c>
-      <c r="D240" s="147" t="s">
-        <v>415</v>
+      <c r="A240" s="123" t="s">
+        <v>2865</v>
+      </c>
+      <c r="B240" s="124" t="s">
+        <v>2866</v>
+      </c>
+      <c r="C240" s="107" t="s">
+        <v>93</v>
+      </c>
+      <c r="D240" s="107" t="s">
+        <v>93</v>
       </c>
       <c r="E240" s="144"/>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A241" s="97" t="s">
-        <v>2879</v>
-      </c>
-      <c r="B241" s="108" t="s">
-        <v>2880</v>
-      </c>
-      <c r="C241" s="147" t="s">
-        <v>415</v>
-      </c>
-      <c r="D241" s="147" t="s">
-        <v>415</v>
-      </c>
-      <c r="E241" s="144"/>
+      <c r="A241" s="123" t="s">
+        <v>2867</v>
+      </c>
+      <c r="B241" s="124" t="s">
+        <v>2868</v>
+      </c>
+      <c r="C241" s="107" t="s">
+        <v>34</v>
+      </c>
+      <c r="D241" s="107" t="s">
+        <v>93</v>
+      </c>
+      <c r="E241" s="144" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" s="97" t="s">
-        <v>2881</v>
+        <v>2869</v>
       </c>
       <c r="B242" s="108" t="s">
-        <v>2882</v>
+        <v>2870</v>
       </c>
       <c r="C242" s="147" t="s">
         <v>415</v>
@@ -33320,10 +33934,10 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" s="97" t="s">
-        <v>2883</v>
+        <v>2871</v>
       </c>
       <c r="B243" s="108" t="s">
-        <v>2884</v>
+        <v>2872</v>
       </c>
       <c r="C243" s="147" t="s">
         <v>415</v>
@@ -33335,10 +33949,10 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" s="97" t="s">
-        <v>2885</v>
+        <v>2873</v>
       </c>
       <c r="B244" s="108" t="s">
-        <v>2886</v>
+        <v>2874</v>
       </c>
       <c r="C244" s="147" t="s">
         <v>415</v>
@@ -33350,10 +33964,10 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" s="97" t="s">
-        <v>2887</v>
+        <v>2875</v>
       </c>
       <c r="B245" s="108" t="s">
-        <v>2888</v>
+        <v>2876</v>
       </c>
       <c r="C245" s="147" t="s">
         <v>415</v>
@@ -33363,12 +33977,12 @@
       </c>
       <c r="E245" s="144"/>
     </row>
-    <row r="246" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" s="97" t="s">
-        <v>2889</v>
+        <v>2877</v>
       </c>
       <c r="B246" s="108" t="s">
-        <v>2890</v>
+        <v>2878</v>
       </c>
       <c r="C246" s="147" t="s">
         <v>415</v>
@@ -33377,6 +33991,96 @@
         <v>415</v>
       </c>
       <c r="E246" s="144"/>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A247" s="97" t="s">
+        <v>2879</v>
+      </c>
+      <c r="B247" s="108" t="s">
+        <v>2880</v>
+      </c>
+      <c r="C247" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="D247" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="E247" s="144"/>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A248" s="97" t="s">
+        <v>2881</v>
+      </c>
+      <c r="B248" s="108" t="s">
+        <v>2882</v>
+      </c>
+      <c r="C248" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="D248" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="E248" s="144"/>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A249" s="97" t="s">
+        <v>2883</v>
+      </c>
+      <c r="B249" s="108" t="s">
+        <v>2884</v>
+      </c>
+      <c r="C249" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="D249" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="E249" s="144"/>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A250" s="97" t="s">
+        <v>2885</v>
+      </c>
+      <c r="B250" s="108" t="s">
+        <v>2886</v>
+      </c>
+      <c r="C250" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="D250" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="E250" s="144"/>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A251" s="97" t="s">
+        <v>2887</v>
+      </c>
+      <c r="B251" s="108" t="s">
+        <v>2888</v>
+      </c>
+      <c r="C251" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="D251" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="E251" s="144"/>
+    </row>
+    <row r="252" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A252" s="97" t="s">
+        <v>2889</v>
+      </c>
+      <c r="B252" s="108" t="s">
+        <v>2890</v>
+      </c>
+      <c r="C252" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="D252" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="E252" s="144"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -33557,26 +34261,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="6c854b04-c9c6-4391-adbe-2e73191270e7" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="059b9c67-646b-4b4e-9ab1-2b1c805d0390">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AD6200282E8E804DB7E47654D11346C2" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="334b3f607926cb22599f187b4c015ce1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="059b9c67-646b-4b4e-9ab1-2b1c805d0390" xmlns:ns3="c05e7bd6-26a7-41a1-805c-893279a3732f" xmlns:ns4="6c854b04-c9c6-4391-adbe-2e73191270e7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0fe548b9ff7492f3109b4e0b4a8efc8f" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="059b9c67-646b-4b4e-9ab1-2b1c805d0390"/>
@@ -33836,26 +34520,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCA6965B-A23A-4F60-9CAE-00FD555BD4D8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="6c854b04-c9c6-4391-adbe-2e73191270e7" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="059b9c67-646b-4b4e-9ab1-2b1c805d0390">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A2EA77E-CA9B-4563-9A5E-2F50B3C8BA13}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="6c854b04-c9c6-4391-adbe-2e73191270e7"/>
-    <ds:schemaRef ds:uri="059b9c67-646b-4b4e-9ab1-2b1c805d0390"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2FE51207-01AF-400E-9D05-58F426138751}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -33873,4 +34558,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A2EA77E-CA9B-4563-9A5E-2F50B3C8BA13}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6c854b04-c9c6-4391-adbe-2e73191270e7"/>
+    <ds:schemaRef ds:uri="059b9c67-646b-4b4e-9ab1-2b1c805d0390"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCA6965B-A23A-4F60-9CAE-00FD555BD4D8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>